--- a/teaching/traditional_assets/database/data/turkey/turkey_trucking.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_trucking.xlsx
@@ -650,10 +650,10 @@
         <v>0.1728973168214654</v>
       </c>
       <c r="X2">
-        <v>0.09349650763741224</v>
+        <v>0.09089361721908711</v>
       </c>
       <c r="Y2">
-        <v>0.07940080918405318</v>
+        <v>0.08200369960237831</v>
       </c>
       <c r="Z2">
         <v>0.8564591905220462</v>
@@ -662,10 +662,10 @@
         <v>0.03820614240078138</v>
       </c>
       <c r="AB2">
-        <v>0.09325719425638164</v>
+        <v>0.09063276728956406</v>
       </c>
       <c r="AC2">
-        <v>-0.05505105185560026</v>
+        <v>-0.05242662488878268</v>
       </c>
       <c r="AD2">
         <v>2.374</v>
@@ -784,10 +784,10 @@
         <v>0.09754901960784314</v>
       </c>
       <c r="X3">
-        <v>0.09399408180635979</v>
+        <v>0.09141614876540417</v>
       </c>
       <c r="Y3">
-        <v>0.003554937801483346</v>
+        <v>0.006132870842438964</v>
       </c>
       <c r="Z3">
         <v>5.110569388821174</v>
@@ -796,10 +796,10 @@
         <v>0.08108516722699208</v>
       </c>
       <c r="AB3">
-        <v>0.09353109390742602</v>
+        <v>0.09091136632235054</v>
       </c>
       <c r="AC3">
-        <v>-0.01244592668043394</v>
+        <v>-0.009826199095358465</v>
       </c>
       <c r="AD3">
         <v>2.33</v>
@@ -894,10 +894,10 @@
         <v>0.2482456140350877</v>
       </c>
       <c r="X4">
-        <v>0.09299893346846469</v>
+        <v>0.09037108567277004</v>
       </c>
       <c r="Y4">
-        <v>0.155246680566623</v>
+        <v>0.1578745283623177</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>-0.004672882425429315</v>
       </c>
       <c r="AB4">
-        <v>0.09298329460533726</v>
+        <v>0.09035416825677757</v>
       </c>
       <c r="AC4">
-        <v>-0.09765617703076658</v>
+        <v>-0.09502705068220689</v>
       </c>
       <c r="AD4">
         <v>0.044</v>
@@ -1209,37 +1209,37 @@
         <v>0.0167710357734111</v>
       </c>
       <c r="F2">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G2">
         <v>136.6</v>
       </c>
       <c r="H2">
-        <v>124.118597238435</v>
+        <v>118.936405716132</v>
       </c>
       <c r="I2">
         <v>131.54</v>
       </c>
       <c r="J2">
-        <v>134.789497238435</v>
+        <v>135.164505716132</v>
       </c>
       <c r="K2">
         <v>2.33</v>
       </c>
       <c r="L2">
-        <v>18.0609</v>
+        <v>23.6181</v>
       </c>
       <c r="M2">
-        <v>0.09353109390742601</v>
+        <v>0.0909113663223505</v>
       </c>
       <c r="N2">
-        <v>0.0916571572864895</v>
+        <v>0.0887229155736169</v>
       </c>
       <c r="O2">
-        <v>0.066387683180236</v>
+        <v>0.061317683180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.09399408180635981</v>
+        <v>0.0914161487654042</v>
       </c>
       <c r="T2">
-        <v>0.101961399179873</v>
+        <v>0.10328452478749</v>
       </c>
       <c r="U2">
         <v>0.817097283134245</v>
       </c>
       <c r="V2">
-        <v>0.900352604117327</v>
+        <v>0.935193637489185</v>
       </c>
       <c r="W2">
-        <v>4.623532306760752</v>
+        <v>4.552530639374265</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>136.6</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08511241433363595</v>
+        <v>0.07861241433363596</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09296740507153545</v>
+        <v>0.09033797587119979</v>
       </c>
       <c r="C2">
-        <v>139.8908672133566</v>
+        <v>139.8607214196002</v>
       </c>
       <c r="D2">
-        <v>132.5008672133566</v>
+        <v>132.4707214196002</v>
       </c>
       <c r="E2">
         <v>-2.33</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09296740507153545</v>
+        <v>0.09033797587119979</v>
       </c>
       <c r="T2">
         <v>0.8063689165967417</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1559,13 +1559,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.09281669678037807</v>
+        <v>0.09019305232428315</v>
       </c>
       <c r="C3">
-        <v>138.7608483836662</v>
+        <v>138.7087486839217</v>
       </c>
       <c r="D3">
-        <v>132.7601483836662</v>
+        <v>132.7080486839217</v>
       </c>
       <c r="E3">
         <v>-0.9406999999999999</v>
@@ -1592,37 +1592,37 @@
         <v>2.43</v>
       </c>
       <c r="M3">
-        <v>0.03153711000000001</v>
+        <v>0.02250666</v>
       </c>
       <c r="N3">
-        <v>2.39846289</v>
+        <v>2.40749334</v>
       </c>
       <c r="O3">
-        <v>0.5276618358</v>
+        <v>0.5296485348000001</v>
       </c>
       <c r="P3">
-        <v>1.8708010542</v>
+        <v>1.8778448052</v>
       </c>
       <c r="Q3">
-        <v>2.1308010542</v>
+        <v>2.1378448052</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.09357539068725057</v>
+        <v>0.0909764568932153</v>
       </c>
       <c r="T3">
         <v>0.8127221262426554</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>77.05208245143578</v>
+        <v>107.9680414597279</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1641,13 +1641,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.09266598848922067</v>
+        <v>0.09004812877736651</v>
       </c>
       <c r="C4">
-        <v>137.6318462799134</v>
+        <v>137.5576278394125</v>
       </c>
       <c r="D4">
-        <v>133.0204462799134</v>
+        <v>132.9462278394125</v>
       </c>
       <c r="E4">
         <v>0.4486000000000003</v>
@@ -1674,37 +1674,37 @@
         <v>2.43</v>
       </c>
       <c r="M4">
-        <v>0.06307422000000001</v>
+        <v>0.04501332</v>
       </c>
       <c r="N4">
-        <v>2.36692578</v>
+        <v>2.38498668</v>
       </c>
       <c r="O4">
-        <v>0.5207236716000001</v>
+        <v>0.5246970696000001</v>
       </c>
       <c r="P4">
-        <v>1.8462021084</v>
+        <v>1.8602896104</v>
       </c>
       <c r="Q4">
-        <v>2.1062021084</v>
+        <v>2.1202896104</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.09419578417267416</v>
+        <v>0.09162796814016991</v>
       </c>
       <c r="T4">
         <v>0.8192049932282817</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>38.52604122571789</v>
+        <v>53.98402072986396</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.09251528019806331</v>
+        <v>0.08990320523044988</v>
       </c>
       <c r="C5">
-        <v>136.503866894217</v>
+        <v>136.4073634811415</v>
       </c>
       <c r="D5">
-        <v>133.281766894217</v>
+        <v>133.1852634811415</v>
       </c>
       <c r="E5">
         <v>1.8379</v>
@@ -1756,37 +1756,37 @@
         <v>2.43</v>
       </c>
       <c r="M5">
-        <v>0.09461133000000002</v>
+        <v>0.06751998000000001</v>
       </c>
       <c r="N5">
-        <v>2.33538867</v>
+        <v>2.36248002</v>
       </c>
       <c r="O5">
-        <v>0.5137855074</v>
+        <v>0.5197456044000001</v>
       </c>
       <c r="P5">
-        <v>1.8216031626</v>
+        <v>1.8427344156</v>
       </c>
       <c r="Q5">
-        <v>2.0816031626</v>
+        <v>2.1027344156</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.09482896927635392</v>
+        <v>0.09229291260871121</v>
       </c>
       <c r="T5">
         <v>0.8258215275744363</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>25.68402748381192</v>
+        <v>35.98934715324263</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1805,13 +1805,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.0923645719069059</v>
+        <v>0.08975828168353323</v>
       </c>
       <c r="C6">
-        <v>135.3769162658754</v>
+        <v>135.2579602372845</v>
       </c>
       <c r="D6">
-        <v>133.5441162658754</v>
+        <v>133.4251602372845</v>
       </c>
       <c r="E6">
         <v>3.227200000000001</v>
@@ -1838,37 +1838,37 @@
         <v>2.43</v>
       </c>
       <c r="M6">
-        <v>0.12614844</v>
+        <v>0.09002664</v>
       </c>
       <c r="N6">
-        <v>2.30385156</v>
+        <v>2.33997336</v>
       </c>
       <c r="O6">
-        <v>0.5068473432</v>
+        <v>0.5147941392000001</v>
       </c>
       <c r="P6">
-        <v>1.7970042168</v>
+        <v>1.8251792208</v>
       </c>
       <c r="Q6">
-        <v>2.0570042168</v>
+        <v>2.0851792208</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.09547534573636032</v>
+        <v>0.09297171008701378</v>
       </c>
       <c r="T6">
         <v>0.8325759063861358</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>19.26302061285894</v>
+        <v>26.99201036493198</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1887,13 +1887,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.09221386361574856</v>
+        <v>0.08961335813661661</v>
       </c>
       <c r="C7">
-        <v>134.2510004818307</v>
+        <v>134.1094227694228</v>
       </c>
       <c r="D7">
-        <v>133.8075004818307</v>
+        <v>133.6659227694228</v>
       </c>
       <c r="E7">
         <v>4.6165</v>
@@ -1920,37 +1920,37 @@
         <v>2.43</v>
       </c>
       <c r="M7">
-        <v>0.15768555</v>
+        <v>0.1125333</v>
       </c>
       <c r="N7">
-        <v>2.27231445</v>
+        <v>2.3174667</v>
       </c>
       <c r="O7">
-        <v>0.499909179</v>
+        <v>0.5098426740000001</v>
       </c>
       <c r="P7">
-        <v>1.772405271</v>
+        <v>1.807624026</v>
       </c>
       <c r="Q7">
-        <v>2.032405271</v>
+        <v>2.067624026</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.09613533012184058</v>
+        <v>0.0936647980385438</v>
       </c>
       <c r="T7">
         <v>0.8394724826465028</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>15.41041649028716</v>
+        <v>21.59360829194559</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.09213803532459115</v>
+        <v>0.08946843458969994</v>
       </c>
       <c r="C8">
-        <v>132.9946144880982</v>
+        <v>132.9617557728459</v>
       </c>
       <c r="D8">
-        <v>133.9404144880982</v>
+        <v>133.9075557728459</v>
       </c>
       <c r="E8">
         <v>6.005800000000001</v>
@@ -2002,45 +2002,45 @@
         <v>2.43</v>
       </c>
       <c r="M8">
-        <v>0.20255994</v>
+        <v>0.13503996</v>
       </c>
       <c r="N8">
-        <v>2.22744006</v>
+        <v>2.29496004</v>
       </c>
       <c r="O8">
-        <v>0.4900368132</v>
+        <v>0.5048912088</v>
       </c>
       <c r="P8">
-        <v>1.7374032468</v>
+        <v>1.7900688312</v>
       </c>
       <c r="Q8">
-        <v>1.9974032468</v>
+        <v>2.0500688312</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.09680935672828847</v>
+        <v>0.09437263254223399</v>
       </c>
       <c r="T8">
         <v>0.8465157945719837</v>
       </c>
       <c r="U8">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y8">
-        <v>11.99644905108088</v>
+        <v>17.99467357662132</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2051,13 +2051,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.0921199270334338</v>
+        <v>0.08932351104278333</v>
       </c>
       <c r="C9">
-        <v>131.6370942881788</v>
+        <v>131.8149639768556</v>
       </c>
       <c r="D9">
-        <v>133.9721942881788</v>
+        <v>134.1500639768556</v>
       </c>
       <c r="E9">
         <v>7.395100000000001</v>
@@ -2084,45 +2084,45 @@
         <v>2.43</v>
       </c>
       <c r="M9">
-        <v>0.2577151500000001</v>
+        <v>0.15754662</v>
       </c>
       <c r="N9">
-        <v>2.17228485</v>
+        <v>2.27245338</v>
       </c>
       <c r="O9">
-        <v>0.477902667</v>
+        <v>0.4999397436</v>
       </c>
       <c r="P9">
-        <v>1.694382183</v>
+        <v>1.7725136364</v>
       </c>
       <c r="Q9">
-        <v>1.954382183</v>
+        <v>2.0325136364</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.09749787853057398</v>
+        <v>0.09509568929331541</v>
       </c>
       <c r="T9">
         <v>0.8537105755711312</v>
       </c>
       <c r="U9">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y9">
-        <v>9.429014941496453</v>
+        <v>15.42400592281827</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2133,13 +2133,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.09199885874227641</v>
+        <v>0.08927842749586666</v>
       </c>
       <c r="C10">
-        <v>130.4606555421765</v>
+        <v>130.5012838770279</v>
       </c>
       <c r="D10">
-        <v>134.1850555421765</v>
+        <v>134.2256838770279</v>
       </c>
       <c r="E10">
         <v>8.784400000000002</v>
@@ -2166,45 +2166,45 @@
         <v>2.43</v>
       </c>
       <c r="M10">
-        <v>0.2945316000000001</v>
+        <v>0.19783632</v>
       </c>
       <c r="N10">
-        <v>2.1354684</v>
+        <v>2.23216368</v>
       </c>
       <c r="O10">
-        <v>0.4698030480000001</v>
+        <v>0.4910760096</v>
       </c>
       <c r="P10">
-        <v>1.665665352</v>
+        <v>1.7410876704</v>
       </c>
       <c r="Q10">
-        <v>1.925665352</v>
+        <v>2.0010876704</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.09820136819812653</v>
+        <v>0.09583446466942029</v>
       </c>
       <c r="T10">
         <v>0.8610617648528684</v>
       </c>
       <c r="U10">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y10">
-        <v>8.250388073809397</v>
+        <v>12.28288112112073</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.09195501045111903</v>
+        <v>0.08914598394895004</v>
       </c>
       <c r="C11">
-        <v>129.1486161892373</v>
+        <v>129.3346290844731</v>
       </c>
       <c r="D11">
-        <v>134.2623161892374</v>
+        <v>134.4483290844731</v>
       </c>
       <c r="E11">
         <v>10.1737</v>
@@ -2248,45 +2248,45 @@
         <v>2.43</v>
       </c>
       <c r="M11">
-        <v>0.34510212</v>
+        <v>0.22256586</v>
       </c>
       <c r="N11">
-        <v>2.08489788</v>
+        <v>2.20743414</v>
       </c>
       <c r="O11">
-        <v>0.4586775336</v>
+        <v>0.4856355108000001</v>
       </c>
       <c r="P11">
-        <v>1.6262203464</v>
+        <v>1.7217986292</v>
       </c>
       <c r="Q11">
-        <v>1.8862203464</v>
+        <v>1.9817986292</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.09892031917705388</v>
+        <v>0.09658947686697807</v>
       </c>
       <c r="T11">
         <v>0.8685745187342047</v>
       </c>
       <c r="U11">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y11">
-        <v>7.041394008243126</v>
+        <v>10.91811655210732</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.09184252215996165</v>
+        <v>0.0891851404020334</v>
       </c>
       <c r="C12">
-        <v>127.9579279407412</v>
+        <v>127.8794279711567</v>
       </c>
       <c r="D12">
-        <v>134.4609279407412</v>
+        <v>134.3824279711567</v>
       </c>
       <c r="E12">
         <v>11.563</v>
@@ -2330,45 +2330,45 @@
         <v>2.43</v>
       </c>
       <c r="M12">
-        <v>0.3834468</v>
+        <v>0.27786</v>
       </c>
       <c r="N12">
-        <v>2.0465532</v>
+        <v>2.15214</v>
       </c>
       <c r="O12">
-        <v>0.450241704</v>
+        <v>0.4734708</v>
       </c>
       <c r="P12">
-        <v>1.596311496</v>
+        <v>1.6786692</v>
       </c>
       <c r="Q12">
-        <v>1.856311496</v>
+        <v>1.9386692</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.09965524684440183</v>
+        <v>0.09736126711337044</v>
       </c>
       <c r="T12">
         <v>0.8762542227017927</v>
       </c>
       <c r="U12">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y12">
-        <v>6.337254607418812</v>
+        <v>8.745411358237963</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.09185873386880429</v>
+        <v>0.08906985685511677</v>
       </c>
       <c r="C13">
-        <v>126.5399679656982</v>
+        <v>126.6843377084002</v>
       </c>
       <c r="D13">
-        <v>134.4322679656982</v>
+        <v>134.5766377084002</v>
       </c>
       <c r="E13">
         <v>12.9523</v>
@@ -2412,45 +2412,45 @@
         <v>2.43</v>
       </c>
       <c r="M13">
-        <v>0.4447149300000001</v>
+        <v>0.305646</v>
       </c>
       <c r="N13">
-        <v>1.98528507</v>
+        <v>2.124354</v>
       </c>
       <c r="O13">
-        <v>0.4367627154000001</v>
+        <v>0.4673578800000001</v>
       </c>
       <c r="P13">
-        <v>1.5485223546</v>
+        <v>1.65699612</v>
       </c>
       <c r="Q13">
-        <v>1.8085223546</v>
+        <v>1.91699612</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1004066897402295</v>
+        <v>0.09815040096080536</v>
       </c>
       <c r="T13">
         <v>0.88410650428663</v>
       </c>
       <c r="U13">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y13">
-        <v>5.464174544353615</v>
+        <v>7.950373962034512</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2461,13 +2461,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.09175794557764691</v>
+        <v>0.08905753330820013</v>
       </c>
       <c r="C14">
-        <v>125.3290455990272</v>
+        <v>125.3158314997813</v>
       </c>
       <c r="D14">
-        <v>134.6106455990272</v>
+        <v>134.5974314997813</v>
       </c>
       <c r="E14">
         <v>14.3416</v>
@@ -2494,45 +2494,45 @@
         <v>2.43</v>
       </c>
       <c r="M14">
-        <v>0.4851435600000001</v>
+        <v>0.3517707600000001</v>
       </c>
       <c r="N14">
-        <v>1.94485644</v>
+        <v>2.07822924</v>
       </c>
       <c r="O14">
-        <v>0.4278684168</v>
+        <v>0.4572104328000001</v>
       </c>
       <c r="P14">
-        <v>1.5169880232</v>
+        <v>1.6210188072</v>
       </c>
       <c r="Q14">
-        <v>1.7769880232</v>
+        <v>1.8810188072</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1011752108836897</v>
+        <v>0.09895746966840924</v>
       </c>
       <c r="T14">
         <v>0.892137246816577</v>
       </c>
       <c r="U14">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y14">
-        <v>5.00882666565748</v>
+        <v>6.907907865906762</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2543,13 +2543,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.09165715728648952</v>
+        <v>0.08910292976128348</v>
       </c>
       <c r="C15">
-        <v>124.1185972384351</v>
+        <v>123.8499648122863</v>
       </c>
       <c r="D15">
-        <v>134.7894972384352</v>
+        <v>134.5208648122863</v>
       </c>
       <c r="E15">
         <v>15.7309</v>
@@ -2576,37 +2576,37 @@
         <v>2.43</v>
       </c>
       <c r="M15">
-        <v>0.52557219</v>
+        <v>0.40817634</v>
       </c>
       <c r="N15">
-        <v>1.90442781</v>
+        <v>2.02182366</v>
       </c>
       <c r="O15">
-        <v>0.4189741182</v>
+        <v>0.4448012052000001</v>
       </c>
       <c r="P15">
-        <v>1.4854536918</v>
+        <v>1.5770224548</v>
       </c>
       <c r="Q15">
-        <v>1.7454536918</v>
+        <v>1.8370224548</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.101961399179873</v>
+        <v>0.09978309167963618</v>
       </c>
       <c r="T15">
         <v>0.9003526041173274</v>
       </c>
       <c r="U15">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>4.623532306760752</v>
+        <v>5.95330929764327</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2625,13 +2625,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.09659048899533215</v>
+        <v>0.08900792621436684</v>
       </c>
       <c r="C16">
-        <v>114.4986093317962</v>
+        <v>122.6209996735533</v>
       </c>
       <c r="D16">
-        <v>126.5588093317962</v>
+        <v>134.6811996735533</v>
       </c>
       <c r="E16">
         <v>17.1202</v>
@@ -2658,45 +2658,45 @@
         <v>2.43</v>
       </c>
       <c r="M16">
-        <v>1.46265504</v>
+        <v>0.43957452</v>
       </c>
       <c r="N16">
-        <v>0.9673449599999999</v>
+        <v>1.99042548</v>
       </c>
       <c r="O16">
-        <v>0.2128158912</v>
+        <v>0.4378936056</v>
       </c>
       <c r="P16">
-        <v>0.7545290687999999</v>
+        <v>1.5525318744</v>
       </c>
       <c r="Q16">
-        <v>1.0145290688</v>
+        <v>1.8125318744</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1027658709248048</v>
+        <v>0.1006279142027521</v>
       </c>
       <c r="T16">
         <v>0.9087590162390257</v>
       </c>
       <c r="U16">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y16">
-        <v>1.661362340090798</v>
+        <v>5.528072919240178</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2707,13 +2707,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.09684928070417477</v>
+        <v>0.0889129226674502</v>
       </c>
       <c r="C17">
-        <v>112.7052049368959</v>
+        <v>121.3924171958257</v>
       </c>
       <c r="D17">
-        <v>126.1547049368959</v>
+        <v>134.8419171958257</v>
       </c>
       <c r="E17">
         <v>18.5095</v>
@@ -2740,45 +2740,45 @@
         <v>2.43</v>
       </c>
       <c r="M17">
-        <v>1.5671304</v>
+        <v>0.4709727</v>
       </c>
       <c r="N17">
-        <v>0.8628696</v>
+        <v>1.9590273</v>
       </c>
       <c r="O17">
-        <v>0.189831312</v>
+        <v>0.430986006</v>
       </c>
       <c r="P17">
-        <v>0.673038288</v>
+        <v>1.528041294</v>
       </c>
       <c r="Q17">
-        <v>0.9330382879999998</v>
+        <v>1.788041294</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1035892714166762</v>
+        <v>0.1014926149028826</v>
       </c>
       <c r="T17">
         <v>0.9173632262929992</v>
       </c>
       <c r="U17">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y17">
-        <v>1.550604850751412</v>
+        <v>5.159534724624167</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1025005261661075</v>
+        <v>0.08881791912053356</v>
       </c>
       <c r="C18">
-        <v>103.0929882453616</v>
+        <v>120.1642187506491</v>
       </c>
       <c r="D18">
-        <v>117.9317882453616</v>
+        <v>135.0030187506491</v>
       </c>
       <c r="E18">
         <v>19.8988</v>
@@ -2822,45 +2822,45 @@
         <v>2.43</v>
       </c>
       <c r="M18">
-        <v>2.5674264</v>
+        <v>0.5023708800000001</v>
       </c>
       <c r="N18">
-        <v>-0.1374263999999998</v>
+        <v>1.92762912</v>
       </c>
       <c r="O18">
-        <v>-0.03023380799999996</v>
+        <v>0.4240784064000001</v>
       </c>
       <c r="P18">
-        <v>-0.1071925919999999</v>
+        <v>1.5035507136</v>
       </c>
       <c r="Q18">
-        <v>0.1528074079999999</v>
+        <v>1.7635507136</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1046053656711097</v>
+        <v>0.1023779037149209</v>
       </c>
       <c r="T18">
-        <v>0.9279810100884786</v>
+        <v>0.9261722984911147</v>
       </c>
       <c r="U18">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V18">
-        <v>0.2082240799580467</v>
+        <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.0914501187648456</v>
+        <v>0.017628</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y18">
-        <v>0.9464730907183941</v>
+        <v>4.837063804335155</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1034975261661075</v>
+        <v>0.08872291557361693</v>
       </c>
       <c r="C19">
-        <v>100.362966357062</v>
+        <v>118.9364057161317</v>
       </c>
       <c r="D19">
-        <v>116.591066357062</v>
+        <v>135.1645057161317</v>
       </c>
       <c r="E19">
         <v>21.2881</v>
@@ -2904,45 +2904,45 @@
         <v>2.43</v>
       </c>
       <c r="M19">
-        <v>2.72789055</v>
+        <v>0.53376906</v>
       </c>
       <c r="N19">
-        <v>-0.29789055</v>
+        <v>1.89623094</v>
       </c>
       <c r="O19">
-        <v>-0.065535921</v>
+        <v>0.4171708068</v>
       </c>
       <c r="P19">
-        <v>-0.232354629</v>
+        <v>1.4790601332</v>
       </c>
       <c r="Q19">
-        <v>0.02764537099999981</v>
+        <v>1.7390601332</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1056753098358219</v>
+        <v>0.1032845247874903</v>
       </c>
       <c r="T19">
-        <v>0.9391615041859301</v>
+        <v>0.9351936374891852</v>
       </c>
       <c r="U19">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V19">
-        <v>0.1959756046663969</v>
+        <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.09286481766103115</v>
+        <v>0.017628</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y19">
-        <v>0.8907982030290769</v>
+        <v>4.552530639374265</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1044945261661075</v>
+        <v>0.1015751454126728</v>
       </c>
       <c r="C20">
-        <v>97.6630861196718</v>
+        <v>98.72117717625068</v>
       </c>
       <c r="D20">
-        <v>115.2804861196718</v>
+        <v>116.3385771762507</v>
       </c>
       <c r="E20">
         <v>22.6774</v>
@@ -2986,37 +2986,37 @@
         <v>2.43</v>
       </c>
       <c r="M20">
-        <v>2.8883547</v>
+        <v>2.7258066</v>
       </c>
       <c r="N20">
-        <v>-0.4583546999999997</v>
+        <v>-0.2958065999999997</v>
       </c>
       <c r="O20">
-        <v>-0.1008380339999999</v>
+        <v>-0.06507745199999994</v>
       </c>
       <c r="P20">
-        <v>-0.3575166659999998</v>
+        <v>-0.2307291479999998</v>
       </c>
       <c r="Q20">
-        <v>-0.09751666599999997</v>
+        <v>0.02927085200000001</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1067713501996734</v>
+        <v>0.1046379590369482</v>
       </c>
       <c r="T20">
-        <v>0.9506146932613683</v>
+        <v>0.9486609939685092</v>
       </c>
       <c r="U20">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V20">
-        <v>0.1850880710738193</v>
+        <v>0.1961254331103315</v>
       </c>
       <c r="W20">
-        <v>0.09412232779097386</v>
+        <v>0.08762232779097387</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>0.841309413971906</v>
+        <v>0.8914792414105976</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3035,13 +3035,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1119663019992599</v>
+        <v>0.1025721454126728</v>
       </c>
       <c r="C21">
-        <v>87.31690691858057</v>
+        <v>96.08831661557591</v>
       </c>
       <c r="D21">
-        <v>106.3236069185806</v>
+        <v>115.0950166155759</v>
       </c>
       <c r="E21">
         <v>24.0667</v>
@@ -3068,45 +3068,45 @@
         <v>2.43</v>
       </c>
       <c r="M21">
-        <v>3.87239589</v>
+        <v>2.8772403</v>
       </c>
       <c r="N21">
-        <v>-1.44239589</v>
+        <v>-0.4472403000000003</v>
       </c>
       <c r="O21">
-        <v>-0.3173270958000001</v>
+        <v>-0.09839286600000005</v>
       </c>
       <c r="P21">
-        <v>-1.1250687942</v>
+        <v>-0.3488474340000002</v>
       </c>
       <c r="Q21">
-        <v>-0.8650687942000004</v>
+        <v>-0.08884743400000039</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.108569485181339</v>
+        <v>0.1058149708769105</v>
       </c>
       <c r="T21">
-        <v>0.9694044938995557</v>
+        <v>0.9603728580915772</v>
       </c>
       <c r="U21">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V21">
-        <v>0.1380540665742727</v>
+        <v>0.1858030418939982</v>
       </c>
       <c r="W21">
-        <v>0.1264474684335542</v>
+        <v>0.08874746843355419</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y21">
-        <v>0.6275184844285122</v>
+        <v>0.8445592813363555</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1132753019992599</v>
+        <v>0.1035691454126729</v>
       </c>
       <c r="C22">
-        <v>84.49978265333769</v>
+        <v>93.48176009899878</v>
       </c>
       <c r="D22">
-        <v>104.8957826533377</v>
+        <v>113.8777600989988</v>
       </c>
       <c r="E22">
         <v>25.456</v>
@@ -3150,45 +3150,45 @@
         <v>2.43</v>
       </c>
       <c r="M22">
-        <v>4.076206200000001</v>
+        <v>3.028674</v>
       </c>
       <c r="N22">
-        <v>-1.6462062</v>
+        <v>-0.5986739999999999</v>
       </c>
       <c r="O22">
-        <v>-0.3621653640000001</v>
+        <v>-0.13170828</v>
       </c>
       <c r="P22">
-        <v>-1.284040836</v>
+        <v>-0.4669657199999999</v>
       </c>
       <c r="Q22">
-        <v>-1.024040836000001</v>
+        <v>-0.2069657200000001</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1097291037461058</v>
+        <v>0.1070214080128719</v>
       </c>
       <c r="T22">
-        <v>0.9815220500733004</v>
+        <v>0.9723775188177222</v>
       </c>
       <c r="U22">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V22">
-        <v>0.1311513632455591</v>
+        <v>0.1765128897992983</v>
       </c>
       <c r="W22">
-        <v>0.1274600950118765</v>
+        <v>0.0897600950118765</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y22">
-        <v>0.5961425602070867</v>
+        <v>0.8023313172695378</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1145843019992599</v>
+        <v>0.1117547966479093</v>
       </c>
       <c r="C23">
-        <v>81.72049885313584</v>
+        <v>82.99416838286029</v>
       </c>
       <c r="D23">
-        <v>103.5057988531358</v>
+        <v>104.7794683828603</v>
       </c>
       <c r="E23">
         <v>26.8453</v>
@@ -3232,37 +3232,37 @@
         <v>2.43</v>
       </c>
       <c r="M23">
-        <v>4.28001651</v>
+        <v>4.09037706</v>
       </c>
       <c r="N23">
-        <v>-1.85001651</v>
+        <v>-1.66037706</v>
       </c>
       <c r="O23">
-        <v>-0.4070036322</v>
+        <v>-0.3652829531999999</v>
       </c>
       <c r="P23">
-        <v>-1.4430128778</v>
+        <v>-1.2950941068</v>
       </c>
       <c r="Q23">
-        <v>-1.1830128778</v>
+        <v>-1.0350941068</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1109180797428919</v>
+        <v>0.1090642755006759</v>
       </c>
       <c r="T23">
-        <v>0.9939463798210636</v>
+        <v>0.9927050853096273</v>
       </c>
       <c r="U23">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V23">
-        <v>0.1249060602338658</v>
+        <v>0.1306969974059067</v>
       </c>
       <c r="W23">
-        <v>0.1283762809636919</v>
+        <v>0.1218762809636919</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>0.5677548192448445</v>
+        <v>0.5940772609359393</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3281,13 +3281,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1158933019992599</v>
+        <v>0.1130637966479093</v>
       </c>
       <c r="C24">
-        <v>78.97757090808356</v>
+        <v>80.28305549104255</v>
       </c>
       <c r="D24">
-        <v>102.1521709080836</v>
+        <v>103.4576554910425</v>
       </c>
       <c r="E24">
         <v>28.2346</v>
@@ -3314,37 +3314,37 @@
         <v>2.43</v>
       </c>
       <c r="M24">
-        <v>4.48382682</v>
+        <v>4.28515692</v>
       </c>
       <c r="N24">
-        <v>-2.05382682</v>
+        <v>-1.85515692</v>
       </c>
       <c r="O24">
-        <v>-0.4518419003999999</v>
+        <v>-0.4081345224</v>
       </c>
       <c r="P24">
-        <v>-1.6019849196</v>
+        <v>-1.4470223976</v>
       </c>
       <c r="Q24">
-        <v>-1.3419849196</v>
+        <v>-1.1870223976</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1121375423036982</v>
+        <v>0.1103433046737615</v>
       </c>
       <c r="T24">
-        <v>1.006689282126462</v>
+        <v>1.005432073582828</v>
       </c>
       <c r="U24">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V24">
-        <v>0.1192285120414173</v>
+        <v>0.1247562247965472</v>
       </c>
       <c r="W24">
-        <v>0.1292091772835241</v>
+        <v>0.1227091772835241</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>0.5419477820064424</v>
+        <v>0.5670737490752147</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3363,13 +3363,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1172023019992599</v>
+        <v>0.1143727966479093</v>
       </c>
       <c r="C25">
-        <v>76.2695908674701</v>
+        <v>77.60487696721702</v>
       </c>
       <c r="D25">
-        <v>100.8334908674701</v>
+        <v>102.168776967217</v>
       </c>
       <c r="E25">
         <v>29.62390000000001</v>
@@ -3396,37 +3396,37 @@
         <v>2.43</v>
       </c>
       <c r="M25">
-        <v>4.687637130000001</v>
+        <v>4.47993678</v>
       </c>
       <c r="N25">
-        <v>-2.25763713</v>
+        <v>-2.04993678</v>
       </c>
       <c r="O25">
-        <v>-0.4966801686000001</v>
+        <v>-0.4509860916</v>
       </c>
       <c r="P25">
-        <v>-1.7609569614</v>
+        <v>-1.5989506884</v>
       </c>
       <c r="Q25">
-        <v>-1.5009569614</v>
+        <v>-1.3389506884</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1133886792167333</v>
+        <v>0.1116555553838104</v>
       </c>
       <c r="T25">
-        <v>1.019763168907325</v>
+        <v>1.018489632980007</v>
       </c>
       <c r="U25">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V25">
-        <v>0.1140446636917905</v>
+        <v>0.1193320411097408</v>
       </c>
       <c r="W25">
-        <v>0.1299696478364143</v>
+        <v>0.1234696478364143</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>0.5183848349626841</v>
+        <v>0.5424183686806402</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3445,13 +3445,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1294142321267431</v>
+        <v>0.1156817966479093</v>
       </c>
       <c r="C26">
-        <v>64.04211045702559</v>
+        <v>74.95841706520181</v>
       </c>
       <c r="D26">
-        <v>89.9953104570256</v>
+        <v>100.9116170652018</v>
       </c>
       <c r="E26">
         <v>31.0132</v>
@@ -3478,45 +3478,45 @@
         <v>2.43</v>
       </c>
       <c r="M26">
-        <v>6.341876640000001</v>
+        <v>4.67471664</v>
       </c>
       <c r="N26">
-        <v>-3.91187664</v>
+        <v>-2.24471664</v>
       </c>
       <c r="O26">
-        <v>-0.8606128608000001</v>
+        <v>-0.4938376607999999</v>
       </c>
       <c r="P26">
-        <v>-3.0512637792</v>
+        <v>-1.7508789792</v>
       </c>
       <c r="Q26">
-        <v>-2.7912637792</v>
+        <v>-1.4908789792</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1152818593741682</v>
+        <v>0.1130023390072816</v>
       </c>
       <c r="T26">
-        <v>1.039546154107593</v>
+        <v>1.031890812361323</v>
       </c>
       <c r="U26">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V26">
-        <v>0.08429681470436171</v>
+        <v>0.1143598727301683</v>
       </c>
       <c r="W26">
-        <v>0.1741667458432304</v>
+        <v>0.1241667458432304</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y26">
-        <v>0.3831673395652805</v>
+        <v>0.5198176033189469</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3527,13 +3527,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1311582321267431</v>
+        <v>0.128392484850503</v>
       </c>
       <c r="C27">
-        <v>61.29225023914179</v>
+        <v>62.79886483521909</v>
       </c>
       <c r="D27">
-        <v>88.63475023914179</v>
+        <v>90.14136483521909</v>
       </c>
       <c r="E27">
         <v>32.4025</v>
@@ -3560,37 +3560,37 @@
         <v>2.43</v>
       </c>
       <c r="M27">
-        <v>6.6061215</v>
+        <v>6.380360250000001</v>
       </c>
       <c r="N27">
-        <v>-4.176121500000001</v>
+        <v>-3.950360250000001</v>
       </c>
       <c r="O27">
-        <v>-0.9187467300000002</v>
+        <v>-0.8690792550000002</v>
       </c>
       <c r="P27">
-        <v>-3.257374770000001</v>
+        <v>-3.081280995</v>
       </c>
       <c r="Q27">
-        <v>-2.997374770000001</v>
+        <v>-2.821280995</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1166082841658238</v>
+        <v>0.1150872877975036</v>
       </c>
       <c r="T27">
-        <v>1.053406769495694</v>
+        <v>1.05263710913215</v>
       </c>
       <c r="U27">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V27">
-        <v>0.08092494211618724</v>
+        <v>0.08378837229449543</v>
       </c>
       <c r="W27">
-        <v>0.1748080760095012</v>
+        <v>0.1683080760095012</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>0.3678406459826692</v>
+        <v>0.380856237702252</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3609,13 +3609,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1329022321267431</v>
+        <v>0.130136484850503</v>
       </c>
       <c r="C28">
-        <v>58.58291558557722</v>
+        <v>60.10857912327028</v>
       </c>
       <c r="D28">
-        <v>87.31471558557722</v>
+        <v>88.84037912327028</v>
       </c>
       <c r="E28">
         <v>33.7918</v>
@@ -3642,37 +3642,37 @@
         <v>2.43</v>
       </c>
       <c r="M28">
-        <v>6.87036636</v>
+        <v>6.635574660000001</v>
       </c>
       <c r="N28">
-        <v>-4.440366360000001</v>
+        <v>-4.20557466</v>
       </c>
       <c r="O28">
-        <v>-0.9768805992000001</v>
+        <v>-0.9252264252</v>
       </c>
       <c r="P28">
-        <v>-3.4634857608</v>
+        <v>-3.2803482348</v>
       </c>
       <c r="Q28">
-        <v>-3.2034857608</v>
+        <v>-3.0203482348</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1179705582761728</v>
+        <v>0.1165168457407131</v>
       </c>
       <c r="T28">
-        <v>1.067641996110501</v>
+        <v>1.066861934931233</v>
       </c>
       <c r="U28">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V28">
-        <v>0.07781244434248773</v>
+        <v>0.08056574259086099</v>
       </c>
       <c r="W28">
-        <v>0.1754000730860588</v>
+        <v>0.1689000730860588</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>0.3536929288294897</v>
+        <v>0.3662079208675501</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3691,13 +3691,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1346462321267431</v>
+        <v>0.131880484850503</v>
       </c>
       <c r="C29">
-        <v>55.91232242839194</v>
+        <v>57.45531266580404</v>
       </c>
       <c r="D29">
-        <v>86.03342242839194</v>
+        <v>87.57641266580404</v>
       </c>
       <c r="E29">
         <v>35.18110000000001</v>
@@ -3724,37 +3724,37 @@
         <v>2.43</v>
       </c>
       <c r="M29">
-        <v>7.134611220000002</v>
+        <v>6.890789070000001</v>
       </c>
       <c r="N29">
-        <v>-4.704611220000002</v>
+        <v>-4.460789070000001</v>
       </c>
       <c r="O29">
-        <v>-1.0350144684</v>
+        <v>-0.9813735954000001</v>
       </c>
       <c r="P29">
-        <v>-3.669596751600002</v>
+        <v>-3.479415474600001</v>
       </c>
       <c r="Q29">
-        <v>-3.409596751600002</v>
+        <v>-3.219415474600001</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1193701549648875</v>
+        <v>0.1179855696549694</v>
       </c>
       <c r="T29">
-        <v>1.082267228933933</v>
+        <v>1.081476481985086</v>
       </c>
       <c r="U29">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V29">
-        <v>0.07493050195943261</v>
+        <v>0.07758182619860689</v>
       </c>
       <c r="W29">
-        <v>0.1759482185273159</v>
+        <v>0.1694482185273159</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>0.3405931907246936</v>
+        <v>0.3526446645391222</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3773,13 +3773,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1363902321267431</v>
+        <v>0.133624484850503</v>
       </c>
       <c r="C30">
-        <v>53.27878990583227</v>
+        <v>54.83750756584068</v>
       </c>
       <c r="D30">
-        <v>84.78918990583227</v>
+        <v>86.34790756584069</v>
       </c>
       <c r="E30">
         <v>36.57040000000001</v>
@@ -3806,37 +3806,37 @@
         <v>2.43</v>
       </c>
       <c r="M30">
-        <v>7.398856080000002</v>
+        <v>7.146003480000001</v>
       </c>
       <c r="N30">
-        <v>-4.968856080000002</v>
+        <v>-4.716003480000001</v>
       </c>
       <c r="O30">
-        <v>-1.0931483376</v>
+        <v>-1.0375207656</v>
       </c>
       <c r="P30">
-        <v>-3.875707742400001</v>
+        <v>-3.678482714400001</v>
       </c>
       <c r="Q30">
-        <v>-3.615707742400001</v>
+        <v>-3.418482714400001</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1208086293393998</v>
+        <v>0.1194950914557329</v>
       </c>
       <c r="T30">
-        <v>1.097298718224682</v>
+        <v>1.096496988679323</v>
       </c>
       <c r="U30">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V30">
-        <v>0.07225441260373859</v>
+        <v>0.07481104669151378</v>
       </c>
       <c r="W30">
-        <v>0.1764572107227689</v>
+        <v>0.1699572107227689</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>0.3284291481988117</v>
+        <v>0.3400502122341534</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3855,13 +3855,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1381342321267431</v>
+        <v>0.135368484850503</v>
       </c>
       <c r="C31">
-        <v>50.68073300578021</v>
+        <v>52.25369213263467</v>
       </c>
       <c r="D31">
-        <v>83.58043300578021</v>
+        <v>85.15339213263466</v>
       </c>
       <c r="E31">
         <v>37.9597</v>
@@ -3888,37 +3888,37 @@
         <v>2.43</v>
       </c>
       <c r="M31">
-        <v>7.66310094</v>
+        <v>7.401217889999999</v>
       </c>
       <c r="N31">
-        <v>-5.23310094</v>
+        <v>-4.971217889999998</v>
       </c>
       <c r="O31">
-        <v>-1.1512822068</v>
+        <v>-1.0936679358</v>
       </c>
       <c r="P31">
-        <v>-4.0818187332</v>
+        <v>-3.877549954199999</v>
       </c>
       <c r="Q31">
-        <v>-3.821818733200001</v>
+        <v>-3.617549954199999</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1222876241188279</v>
+        <v>0.1210471349973629</v>
       </c>
       <c r="T31">
-        <v>1.112753629748973</v>
+        <v>1.111940608238187</v>
       </c>
       <c r="U31">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V31">
-        <v>0.06976288113464418</v>
+        <v>0.07223135542628918</v>
       </c>
       <c r="W31">
-        <v>0.1769311000081907</v>
+        <v>0.1704311000081907</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>0.3171040051574735</v>
+        <v>0.3283243428467691</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3937,13 +3937,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1398782321267431</v>
+        <v>0.137112484850503</v>
       </c>
       <c r="C32">
-        <v>48.11665582960975</v>
+        <v>49.7024750002589</v>
       </c>
       <c r="D32">
-        <v>82.40565582960976</v>
+        <v>83.9914750002589</v>
       </c>
       <c r="E32">
         <v>39.349</v>
@@ -3970,37 +3970,37 @@
         <v>2.43</v>
       </c>
       <c r="M32">
-        <v>7.9273458</v>
+        <v>7.656432300000001</v>
       </c>
       <c r="N32">
-        <v>-5.4973458</v>
+        <v>-5.226432300000001</v>
       </c>
       <c r="O32">
-        <v>-1.209416076</v>
+        <v>-1.149815106</v>
       </c>
       <c r="P32">
-        <v>-4.287929724</v>
+        <v>-4.076617194000001</v>
       </c>
       <c r="Q32">
-        <v>-4.027929724</v>
+        <v>-3.816617194000001</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1238088758919541</v>
+        <v>0.1226435226401824</v>
       </c>
       <c r="T32">
-        <v>1.128650110173958</v>
+        <v>1.127825474070161</v>
       </c>
       <c r="U32">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V32">
-        <v>0.06743745176348936</v>
+        <v>0.06982364357874621</v>
       </c>
       <c r="W32">
-        <v>0.1773733966745843</v>
+        <v>0.1708733966745843</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>0.3065338716522245</v>
+        <v>0.3173801980852099</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1416222321267431</v>
+        <v>0.138856484850503</v>
       </c>
       <c r="C33">
-        <v>45.5851454162539</v>
+        <v>47.18253972121844</v>
       </c>
       <c r="D33">
-        <v>81.2634454162539</v>
+        <v>82.86083972121844</v>
       </c>
       <c r="E33">
         <v>40.7383</v>
@@ -4052,37 +4052,37 @@
         <v>2.43</v>
       </c>
       <c r="M33">
-        <v>8.191590660000001</v>
+        <v>7.91164671</v>
       </c>
       <c r="N33">
-        <v>-5.761590660000001</v>
+        <v>-5.48164671</v>
       </c>
       <c r="O33">
-        <v>-1.2675499452</v>
+        <v>-1.2059622762</v>
       </c>
       <c r="P33">
-        <v>-4.494040714800001</v>
+        <v>-4.2756844338</v>
       </c>
       <c r="Q33">
-        <v>-4.234040714800001</v>
+        <v>-4.0156844338</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1253742219193737</v>
+        <v>0.1242861823885909</v>
       </c>
       <c r="T33">
-        <v>1.145007358147494</v>
+        <v>1.144170770795815</v>
       </c>
       <c r="U33">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V33">
-        <v>0.06526205009369938</v>
+        <v>0.06757126797943182</v>
       </c>
       <c r="W33">
-        <v>0.1777871580721784</v>
+        <v>0.1712871580721784</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>0.296645682244088</v>
+        <v>0.3071421271792355</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1433662321267432</v>
+        <v>0.140600484850503</v>
       </c>
       <c r="C34">
-        <v>43.0848660728714</v>
+        <v>44.69263979092617</v>
       </c>
       <c r="D34">
-        <v>80.15246607287141</v>
+        <v>81.76023979092618</v>
       </c>
       <c r="E34">
         <v>42.12760000000001</v>
@@ -4134,37 +4134,37 @@
         <v>2.43</v>
       </c>
       <c r="M34">
-        <v>8.455835520000001</v>
+        <v>8.166861120000002</v>
       </c>
       <c r="N34">
-        <v>-6.025835520000001</v>
+        <v>-5.736861120000002</v>
       </c>
       <c r="O34">
-        <v>-1.3256838144</v>
+        <v>-1.2621094464</v>
       </c>
       <c r="P34">
-        <v>-4.700151705600001</v>
+        <v>-4.474751673600002</v>
       </c>
       <c r="Q34">
-        <v>-4.440151705600001</v>
+        <v>-4.214751673600002</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1269856075358351</v>
+        <v>0.1259771556590113</v>
       </c>
       <c r="T34">
-        <v>1.161845701649663</v>
+        <v>1.160996811542813</v>
       </c>
       <c r="U34">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V34">
-        <v>0.06322261102827127</v>
+        <v>0.06545966585507455</v>
       </c>
       <c r="W34">
-        <v>0.1781750593824228</v>
+        <v>0.1716750593824228</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>0.2873755046739603</v>
+        <v>0.2975439357048842</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1451102321267431</v>
+        <v>0.142344484850503</v>
       </c>
       <c r="C35">
-        <v>40.61455416428497</v>
+        <v>42.23159406350574</v>
       </c>
       <c r="D35">
-        <v>79.07145416428497</v>
+        <v>80.68849406350574</v>
       </c>
       <c r="E35">
         <v>43.51690000000001</v>
@@ -4216,37 +4216,37 @@
         <v>2.43</v>
       </c>
       <c r="M35">
-        <v>8.720080380000001</v>
+        <v>8.422075530000001</v>
       </c>
       <c r="N35">
-        <v>-6.290080380000001</v>
+        <v>-5.992075530000001</v>
       </c>
       <c r="O35">
-        <v>-1.3838176836</v>
+        <v>-1.3182566166</v>
       </c>
       <c r="P35">
-        <v>-4.906262696400001</v>
+        <v>-4.673818913400001</v>
       </c>
       <c r="Q35">
-        <v>-4.646262696400001</v>
+        <v>-4.413818913400001</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1286450942154744</v>
+        <v>0.1277186057434742</v>
       </c>
       <c r="T35">
-        <v>1.1791866822713</v>
+        <v>1.178325122162855</v>
       </c>
       <c r="U35">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V35">
-        <v>0.06130677433044488</v>
+        <v>0.063476039617042</v>
       </c>
       <c r="W35">
-        <v>0.1785394515223494</v>
+        <v>0.1720394515223494</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>0.2786671560474766</v>
+        <v>0.2885274528047364</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4265,13 +4265,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1468542321267431</v>
+        <v>0.144088484850503</v>
       </c>
       <c r="C36">
-        <v>38.17301331845596</v>
+        <v>39.7982825234782</v>
       </c>
       <c r="D36">
-        <v>78.01921331845597</v>
+        <v>79.6444825234782</v>
       </c>
       <c r="E36">
         <v>44.90620000000001</v>
@@ -4298,37 +4298,37 @@
         <v>2.43</v>
       </c>
       <c r="M36">
-        <v>8.98432524</v>
+        <v>8.677289940000001</v>
       </c>
       <c r="N36">
-        <v>-6.554325240000001</v>
+        <v>-6.247289940000002</v>
       </c>
       <c r="O36">
-        <v>-1.4419515528</v>
+        <v>-1.3744037868</v>
       </c>
       <c r="P36">
-        <v>-5.112373687200001</v>
+        <v>-4.872886153200001</v>
       </c>
       <c r="Q36">
-        <v>-4.852373687200001</v>
+        <v>-4.612886153200002</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1303548683702543</v>
+        <v>0.1295128270426177</v>
       </c>
       <c r="T36">
-        <v>1.197053147154198</v>
+        <v>1.196178533104716</v>
       </c>
       <c r="U36">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V36">
-        <v>0.05950363390896121</v>
+        <v>0.06160909727536429</v>
       </c>
       <c r="W36">
-        <v>0.1788824088305156</v>
+        <v>0.1723824088305156</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>0.2704710632225509</v>
+        <v>0.2800413512516559</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4347,13 +4347,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1485982321267431</v>
+        <v>0.145832484850503</v>
       </c>
       <c r="C37">
-        <v>35.75911000974985</v>
+        <v>37.391642381511</v>
       </c>
       <c r="D37">
-        <v>76.99461000974986</v>
+        <v>78.62714238151101</v>
       </c>
       <c r="E37">
         <v>46.29550000000001</v>
@@ -4380,37 +4380,37 @@
         <v>2.43</v>
       </c>
       <c r="M37">
-        <v>9.248570100000002</v>
+        <v>8.932504350000002</v>
       </c>
       <c r="N37">
-        <v>-6.818570100000002</v>
+        <v>-6.502504350000002</v>
       </c>
       <c r="O37">
-        <v>-1.500085422000001</v>
+        <v>-1.430550957000001</v>
       </c>
       <c r="P37">
-        <v>-5.318484678000002</v>
+        <v>-5.071953393000002</v>
       </c>
       <c r="Q37">
-        <v>-5.058484678000002</v>
+        <v>-4.811953393000002</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1321172509605659</v>
+        <v>0.1313622551509657</v>
       </c>
       <c r="T37">
-        <v>1.215469349418109</v>
+        <v>1.214581279767866</v>
       </c>
       <c r="U37">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V37">
-        <v>0.05780353008299087</v>
+        <v>0.05984883735321102</v>
       </c>
       <c r="W37">
-        <v>0.1792057685782151</v>
+        <v>0.1727057685782152</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.2627433185590494</v>
+        <v>0.2720401697873228</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4429,13 +4429,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1503422321267431</v>
+        <v>0.147576484850503</v>
       </c>
       <c r="C38">
-        <v>33.37176948571194</v>
+        <v>35.01066446561948</v>
       </c>
       <c r="D38">
-        <v>75.99656948571194</v>
+        <v>77.63546446561948</v>
       </c>
       <c r="E38">
         <v>47.6848</v>
@@ -4462,37 +4462,37 @@
         <v>2.43</v>
       </c>
       <c r="M38">
-        <v>9.51281496</v>
+        <v>9.187718760000001</v>
       </c>
       <c r="N38">
-        <v>-7.08281496</v>
+        <v>-6.757718760000001</v>
       </c>
       <c r="O38">
-        <v>-1.5582192912</v>
+        <v>-1.4866981272</v>
       </c>
       <c r="P38">
-        <v>-5.5245956688</v>
+        <v>-5.271020632800001</v>
       </c>
       <c r="Q38">
-        <v>-5.2645956688</v>
+        <v>-5.011020632800001</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1339347080068247</v>
+        <v>0.1332694778876995</v>
       </c>
       <c r="T38">
-        <v>1.234461058002767</v>
+        <v>1.233559112264238</v>
       </c>
       <c r="U38">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V38">
-        <v>0.05619787646957447</v>
+        <v>0.05818636964895516</v>
       </c>
       <c r="W38">
-        <v>0.1795111638954869</v>
+        <v>0.1730111638954869</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.2554448930435202</v>
+        <v>0.2644834984043416</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4511,13 +4511,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1520862321267431</v>
+        <v>0.149320484850503</v>
       </c>
       <c r="C39">
-        <v>31.00997200658416</v>
+        <v>32.6543898820605</v>
       </c>
       <c r="D39">
-        <v>75.02407200658416</v>
+        <v>76.6684898820605</v>
       </c>
       <c r="E39">
         <v>49.0741</v>
@@ -4544,37 +4544,37 @@
         <v>2.43</v>
       </c>
       <c r="M39">
-        <v>9.77705982</v>
+        <v>9.44293317</v>
       </c>
       <c r="N39">
-        <v>-7.34705982</v>
+        <v>-7.01293317</v>
       </c>
       <c r="O39">
-        <v>-1.6163531604</v>
+        <v>-1.5428452974</v>
       </c>
       <c r="P39">
-        <v>-5.7307066596</v>
+        <v>-5.470087872600001</v>
       </c>
       <c r="Q39">
-        <v>-5.4707066596</v>
+        <v>-5.210087872600001</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1358098621021712</v>
+        <v>0.1352372473779805</v>
       </c>
       <c r="T39">
-        <v>1.254055677971065</v>
+        <v>1.253139415633512</v>
       </c>
       <c r="U39">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V39">
-        <v>0.05467901494336976</v>
+        <v>0.05661376506384828</v>
       </c>
       <c r="W39">
-        <v>0.1798000513577711</v>
+        <v>0.1733000513577711</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>0.2485409770153171</v>
+        <v>0.2573352957447649</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4593,13 +4593,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1538302321267431</v>
+        <v>0.151064484850503</v>
       </c>
       <c r="C40">
-        <v>28.67274936990162</v>
+        <v>30.32190692269432</v>
       </c>
       <c r="D40">
-        <v>74.07614936990163</v>
+        <v>75.72530692269433</v>
       </c>
       <c r="E40">
         <v>50.46340000000001</v>
@@ -4626,37 +4626,37 @@
         <v>2.43</v>
       </c>
       <c r="M40">
-        <v>10.04130468</v>
+        <v>9.698147580000001</v>
       </c>
       <c r="N40">
-        <v>-7.611304680000002</v>
+        <v>-7.268147580000001</v>
       </c>
       <c r="O40">
-        <v>-1.6744870296</v>
+        <v>-1.5989924676</v>
       </c>
       <c r="P40">
-        <v>-5.936817650400002</v>
+        <v>-5.6691551124</v>
       </c>
       <c r="Q40">
-        <v>-5.676817650400002</v>
+        <v>-5.409155112400001</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.137745505039303</v>
+        <v>0.1372684933034317</v>
       </c>
       <c r="T40">
-        <v>1.274282382454469</v>
+        <v>1.273351341692117</v>
       </c>
       <c r="U40">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V40">
-        <v>0.0532400934974916</v>
+        <v>0.05512392914111542</v>
       </c>
       <c r="W40">
-        <v>0.1800737342167771</v>
+        <v>0.1735737342167771</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.2420004249885981</v>
+        <v>0.2505633142777973</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4675,13 +4675,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1555742321267432</v>
+        <v>0.152808484850503</v>
       </c>
       <c r="C41">
-        <v>26.3591816952707</v>
+        <v>28.01234819784782</v>
       </c>
       <c r="D41">
-        <v>73.1518816952707</v>
+        <v>74.80504819784782</v>
       </c>
       <c r="E41">
         <v>51.85270000000001</v>
@@ -4708,37 +4708,37 @@
         <v>2.43</v>
       </c>
       <c r="M41">
-        <v>10.30554954</v>
+        <v>9.953361990000001</v>
       </c>
       <c r="N41">
-        <v>-7.875549540000002</v>
+        <v>-7.523361990000001</v>
       </c>
       <c r="O41">
-        <v>-1.7326208988</v>
+        <v>-1.6551396378</v>
       </c>
       <c r="P41">
-        <v>-6.142928641200001</v>
+        <v>-5.868222352200001</v>
       </c>
       <c r="Q41">
-        <v>-5.882928641200001</v>
+        <v>-5.608222352200001</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1397446116792915</v>
+        <v>0.139366337455947</v>
       </c>
       <c r="T41">
-        <v>1.295172257576673</v>
+        <v>1.294225953851004</v>
       </c>
       <c r="U41">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V41">
-        <v>0.05187496289499181</v>
+        <v>0.053710495060574</v>
       </c>
       <c r="W41">
-        <v>0.1803333820573726</v>
+        <v>0.1738333820573726</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.2357952858863264</v>
+        <v>0.2441386139116999</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4757,13 +4757,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1573182321267431</v>
+        <v>0.154552484850503</v>
       </c>
       <c r="C42">
-        <v>24.06839444688354</v>
+        <v>25.7248879757262</v>
       </c>
       <c r="D42">
-        <v>72.25039444688355</v>
+        <v>73.90688797572621</v>
       </c>
       <c r="E42">
         <v>53.242</v>
@@ -4790,37 +4790,37 @@
         <v>2.43</v>
       </c>
       <c r="M42">
-        <v>10.5697944</v>
+        <v>10.2085764</v>
       </c>
       <c r="N42">
-        <v>-8.139794400000001</v>
+        <v>-7.7785764</v>
       </c>
       <c r="O42">
-        <v>-1.790754768</v>
+        <v>-1.711286808</v>
       </c>
       <c r="P42">
-        <v>-6.349039632000001</v>
+        <v>-6.067289592</v>
       </c>
       <c r="Q42">
-        <v>-6.089039632000001</v>
+        <v>-5.807289592</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1418103552072797</v>
+        <v>0.1415341097468795</v>
       </c>
       <c r="T42">
-        <v>1.316758461869618</v>
+        <v>1.315796386415188</v>
       </c>
       <c r="U42">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V42">
-        <v>0.05057808882261702</v>
+        <v>0.05236773268405965</v>
       </c>
       <c r="W42">
-        <v>0.1805800475059383</v>
+        <v>0.1740800475059382</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.2299004037391682</v>
+        <v>0.2380351485639075</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4839,13 +4839,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1590622321267431</v>
+        <v>0.156296484850503</v>
       </c>
       <c r="C43">
-        <v>21.79955567351101</v>
+        <v>23.45873971122006</v>
       </c>
       <c r="D43">
-        <v>71.37085567351102</v>
+        <v>73.03003971122007</v>
       </c>
       <c r="E43">
         <v>54.63130000000001</v>
@@ -4872,37 +4872,37 @@
         <v>2.43</v>
       </c>
       <c r="M43">
-        <v>10.83403926</v>
+        <v>10.46379081</v>
       </c>
       <c r="N43">
-        <v>-8.404039260000003</v>
+        <v>-8.033790810000003</v>
       </c>
       <c r="O43">
-        <v>-1.848888637200001</v>
+        <v>-1.767433978200001</v>
       </c>
       <c r="P43">
-        <v>-6.555150622800002</v>
+        <v>-6.266356831800002</v>
       </c>
       <c r="Q43">
-        <v>-6.295150622800002</v>
+        <v>-6.006356831800002</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1439461239396065</v>
+        <v>0.1437753658442842</v>
       </c>
       <c r="T43">
-        <v>1.339076401901306</v>
+        <v>1.338098020083242</v>
       </c>
       <c r="U43">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V43">
-        <v>0.04934447690011416</v>
+        <v>0.0510904709112777</v>
       </c>
       <c r="W43">
-        <v>0.1808146804935983</v>
+        <v>0.1743146804935983</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.2242930768187007</v>
+        <v>0.2322294132330804</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4921,13 +4921,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1608062321267432</v>
+        <v>0.158040484850503</v>
       </c>
       <c r="C44">
-        <v>19.55187344766428</v>
+        <v>21.21315374856249</v>
       </c>
       <c r="D44">
-        <v>70.51247344766428</v>
+        <v>72.17375374856249</v>
       </c>
       <c r="E44">
         <v>56.0206</v>
@@ -4954,37 +4954,37 @@
         <v>2.43</v>
       </c>
       <c r="M44">
-        <v>11.09828412</v>
+        <v>10.71900522</v>
       </c>
       <c r="N44">
-        <v>-8.668284120000001</v>
+        <v>-8.28900522</v>
       </c>
       <c r="O44">
-        <v>-1.9070225064</v>
+        <v>-1.8235811484</v>
       </c>
       <c r="P44">
-        <v>-6.7612616136</v>
+        <v>-6.4654240716</v>
       </c>
       <c r="Q44">
-        <v>-6.501261613600001</v>
+        <v>-6.2054240716</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1461555398695997</v>
+        <v>0.1460939066347029</v>
       </c>
       <c r="T44">
-        <v>1.362163926072018</v>
+        <v>1.361168675601918</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V44">
-        <v>0.0481696084024924</v>
+        <v>0.04987403112767586</v>
       </c>
       <c r="W44">
-        <v>0.181038140481846</v>
+        <v>0.174538140481846</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.2189527654658745</v>
+        <v>0.2267001414894357</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5003,13 +5003,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1625502321267431</v>
+        <v>0.159784484850503</v>
       </c>
       <c r="C45">
-        <v>17.3245934873565</v>
+        <v>18.98741518373279</v>
       </c>
       <c r="D45">
-        <v>69.6744934873565</v>
+        <v>71.33731518373278</v>
       </c>
       <c r="E45">
         <v>57.4099</v>
@@ -5036,37 +5036,37 @@
         <v>2.43</v>
       </c>
       <c r="M45">
-        <v>11.36252898</v>
+        <v>10.97421963</v>
       </c>
       <c r="N45">
-        <v>-8.932528980000001</v>
+        <v>-8.544219630000001</v>
       </c>
       <c r="O45">
-        <v>-1.9651563756</v>
+        <v>-1.8797283186</v>
       </c>
       <c r="P45">
-        <v>-6.9673726044</v>
+        <v>-6.664491311400001</v>
       </c>
       <c r="Q45">
-        <v>-6.707372604400001</v>
+        <v>-6.404491311400001</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1484424791655576</v>
+        <v>0.1484937997335573</v>
       </c>
       <c r="T45">
-        <v>1.386061538810124</v>
+        <v>1.38504882780546</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V45">
-        <v>0.04704938495127165</v>
+        <v>0.04871416993866014</v>
       </c>
       <c r="W45">
-        <v>0.1812512069822682</v>
+        <v>0.1747512069822681</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.2138608406875984</v>
+        <v>0.2214280451757279</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5085,13 +5085,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1642942321267432</v>
+        <v>0.161528484850503</v>
       </c>
       <c r="C46">
-        <v>15.11699694545286</v>
+        <v>16.78084187379601</v>
       </c>
       <c r="D46">
-        <v>68.85619694545287</v>
+        <v>70.52004187379602</v>
       </c>
       <c r="E46">
         <v>58.79920000000001</v>
@@ -5118,37 +5118,37 @@
         <v>2.43</v>
       </c>
       <c r="M46">
-        <v>11.62677384</v>
+        <v>11.22943404</v>
       </c>
       <c r="N46">
-        <v>-9.196773840000002</v>
+        <v>-8.799434040000001</v>
       </c>
       <c r="O46">
-        <v>-2.023290244800001</v>
+        <v>-1.9358754888</v>
       </c>
       <c r="P46">
-        <v>-7.173483595200002</v>
+        <v>-6.863558551200001</v>
       </c>
       <c r="Q46">
-        <v>-6.913483595200002</v>
+        <v>-6.603558551200001</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1508110948649426</v>
+        <v>0.150979403300228</v>
       </c>
       <c r="T46">
-        <v>1.410812637717448</v>
+        <v>1.409781842587701</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.04598008074783366</v>
+        <v>0.0476070297127815</v>
       </c>
       <c r="W46">
-        <v>0.181454588641762</v>
+        <v>0.174954588641762</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.2090003670356074</v>
+        <v>0.2163955896035522</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5167,13 +5167,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1660382321267431</v>
+        <v>0.163272484850503</v>
       </c>
       <c r="C47">
-        <v>12.92839835299097</v>
+        <v>14.59278258152821</v>
       </c>
       <c r="D47">
-        <v>68.05689835299097</v>
+        <v>69.72128258152821</v>
       </c>
       <c r="E47">
         <v>60.1885</v>
@@ -5200,37 +5200,37 @@
         <v>2.43</v>
       </c>
       <c r="M47">
-        <v>11.8910187</v>
+        <v>11.48464845</v>
       </c>
       <c r="N47">
-        <v>-9.461018700000002</v>
+        <v>-9.05464845</v>
       </c>
       <c r="O47">
-        <v>-2.081424114</v>
+        <v>-1.992022659</v>
       </c>
       <c r="P47">
-        <v>-7.379594586000001</v>
+        <v>-7.062625791</v>
       </c>
       <c r="Q47">
-        <v>-7.119594586000002</v>
+        <v>-6.802625791000001</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1532658420443052</v>
+        <v>0.1535553924511412</v>
       </c>
       <c r="T47">
-        <v>1.436463776585038</v>
+        <v>1.435414239725659</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.04495830117565957</v>
+        <v>0.04654909571916414</v>
       </c>
       <c r="W47">
-        <v>0.1816489311163896</v>
+        <v>0.1751489311163895</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.2043559144348162</v>
+        <v>0.2115867987234733</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5249,13 +5249,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1677822321267431</v>
+        <v>0.165016484850503</v>
       </c>
       <c r="C48">
-        <v>10.75814370410387</v>
+        <v>12.42261524472106</v>
       </c>
       <c r="D48">
-        <v>67.27594370410388</v>
+        <v>68.94041524472107</v>
       </c>
       <c r="E48">
         <v>61.57780000000001</v>
@@ -5282,37 +5282,37 @@
         <v>2.43</v>
       </c>
       <c r="M48">
-        <v>12.15526356</v>
+        <v>11.73986286</v>
       </c>
       <c r="N48">
-        <v>-9.725263560000002</v>
+        <v>-9.309862860000003</v>
       </c>
       <c r="O48">
-        <v>-2.1395579832</v>
+        <v>-2.048169829200001</v>
       </c>
       <c r="P48">
-        <v>-7.585705576800001</v>
+        <v>-7.261693030800002</v>
       </c>
       <c r="Q48">
-        <v>-7.325705576800002</v>
+        <v>-7.001693030800002</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1558115057858664</v>
+        <v>0.1562267886076439</v>
       </c>
       <c r="T48">
-        <v>1.463064957632909</v>
+        <v>1.461995984905764</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.04398094680227567</v>
+        <v>0.04553715885570404</v>
       </c>
       <c r="W48">
-        <v>0.1818348239182072</v>
+        <v>0.1753348239182071</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.1999133945557985</v>
+        <v>0.2069870857077456</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5331,13 +5331,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1695262321267432</v>
+        <v>0.166760484850503</v>
       </c>
       <c r="C49">
-        <v>8.605608671300729</v>
+        <v>10.26974536049934</v>
       </c>
       <c r="D49">
-        <v>66.51270867130073</v>
+        <v>68.17684536049934</v>
       </c>
       <c r="E49">
         <v>62.9671</v>
@@ -5364,37 +5364,37 @@
         <v>2.43</v>
       </c>
       <c r="M49">
-        <v>12.41950842</v>
+        <v>11.99507727</v>
       </c>
       <c r="N49">
-        <v>-9.989508420000002</v>
+        <v>-9.56507727</v>
       </c>
       <c r="O49">
-        <v>-2.1976918524</v>
+        <v>-2.1043169994</v>
       </c>
       <c r="P49">
-        <v>-7.791816567600002</v>
+        <v>-7.4607602706</v>
       </c>
       <c r="Q49">
-        <v>-7.531816567600002</v>
+        <v>-7.2007602706</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.158453232310128</v>
+        <v>0.1589989921662787</v>
       </c>
       <c r="T49">
-        <v>1.49066995683353</v>
+        <v>1.489580814809646</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.04304518197669534</v>
+        <v>0.04456828313536992</v>
       </c>
       <c r="W49">
-        <v>0.1820128063880325</v>
+        <v>0.1755128063880325</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.1956599180758879</v>
+        <v>0.2025831051607724</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5413,13 +5413,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1712702321267431</v>
+        <v>0.168504484850503</v>
       </c>
       <c r="C50">
-        <v>6.470196940868746</v>
+        <v>8.1336044758323</v>
       </c>
       <c r="D50">
-        <v>65.76659694086875</v>
+        <v>67.43000447583231</v>
       </c>
       <c r="E50">
         <v>64.35640000000001</v>
@@ -5446,37 +5446,37 @@
         <v>2.43</v>
       </c>
       <c r="M50">
-        <v>12.68375328</v>
+        <v>12.25029168</v>
       </c>
       <c r="N50">
-        <v>-10.25375328</v>
+        <v>-9.820291680000002</v>
       </c>
       <c r="O50">
-        <v>-2.2558257216</v>
+        <v>-2.1604641696</v>
       </c>
       <c r="P50">
-        <v>-7.997927558400001</v>
+        <v>-7.659827510400001</v>
       </c>
       <c r="Q50">
-        <v>-7.737927558400001</v>
+        <v>-7.399827510400002</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1611965637007074</v>
+        <v>0.1618778189387071</v>
       </c>
       <c r="T50">
-        <v>1.519336686772636</v>
+        <v>1.518226599709832</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.04214840735218085</v>
+        <v>0.04363977723671637</v>
       </c>
       <c r="W50">
-        <v>0.1821833729216152</v>
+        <v>0.1756833729216152</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.1915836697826402</v>
+        <v>0.1983626238032562</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5495,13 +5495,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1730142321267432</v>
+        <v>0.170248484850503</v>
       </c>
       <c r="C51">
-        <v>4.351338659068844</v>
+        <v>6.013648776183544</v>
       </c>
       <c r="D51">
-        <v>65.03703865906884</v>
+        <v>66.69934877618354</v>
       </c>
       <c r="E51">
         <v>65.7457</v>
@@ -5528,37 +5528,37 @@
         <v>2.43</v>
       </c>
       <c r="M51">
-        <v>12.94799814</v>
+        <v>12.50550609</v>
       </c>
       <c r="N51">
-        <v>-10.51799814</v>
+        <v>-10.07550609</v>
       </c>
       <c r="O51">
-        <v>-2.3139595908</v>
+        <v>-2.2166113398</v>
       </c>
       <c r="P51">
-        <v>-8.2040385492</v>
+        <v>-7.858894750199999</v>
       </c>
       <c r="Q51">
-        <v>-7.9440385492</v>
+        <v>-7.598894750199999</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1640474767144467</v>
+        <v>0.1648695408786817</v>
       </c>
       <c r="T51">
-        <v>1.54912760219955</v>
+        <v>1.54799574872375</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.04128823577356492</v>
+        <v>0.04274916953800788</v>
       </c>
       <c r="W51">
-        <v>0.182346977555868</v>
+        <v>0.175846977555868</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.1876737989707497</v>
+        <v>0.1943144069909449</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5577,13 +5577,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1747582321267431</v>
+        <v>0.171992484850503</v>
       </c>
       <c r="C52">
-        <v>2.248488980616372</v>
+        <v>3.909357764935834</v>
       </c>
       <c r="D52">
-        <v>64.32348898061637</v>
+        <v>65.98435776493584</v>
       </c>
       <c r="E52">
         <v>67.13500000000001</v>
@@ -5610,37 +5610,37 @@
         <v>2.43</v>
       </c>
       <c r="M52">
-        <v>13.212243</v>
+        <v>12.7607205</v>
       </c>
       <c r="N52">
-        <v>-10.782243</v>
+        <v>-10.3307205</v>
       </c>
       <c r="O52">
-        <v>-2.37209346</v>
+        <v>-2.272758510000001</v>
       </c>
       <c r="P52">
-        <v>-8.410149540000001</v>
+        <v>-8.057961990000001</v>
       </c>
       <c r="Q52">
-        <v>-8.150149540000001</v>
+        <v>-7.797961990000001</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1670124262487357</v>
+        <v>0.1679809316962554</v>
       </c>
       <c r="T52">
-        <v>1.580110154243541</v>
+        <v>1.578955663698225</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.04046247105809362</v>
+        <v>0.04189418614724771</v>
       </c>
       <c r="W52">
-        <v>0.1825040380047506</v>
+        <v>0.1760040380047506</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.1839203229913345</v>
+        <v>0.190428118851126</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5659,13 +5659,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1765022321267432</v>
+        <v>0.173736484850503</v>
       </c>
       <c r="C53">
-        <v>0.1611267116758626</v>
+        <v>1.820233026851284</v>
       </c>
       <c r="D53">
-        <v>63.62542671167587</v>
+        <v>65.28453302685129</v>
       </c>
       <c r="E53">
         <v>68.52430000000001</v>
@@ -5692,37 +5692,37 @@
         <v>2.43</v>
       </c>
       <c r="M53">
-        <v>13.47648786</v>
+        <v>13.01593491</v>
       </c>
       <c r="N53">
-        <v>-11.04648786</v>
+        <v>-10.58593491</v>
       </c>
       <c r="O53">
-        <v>-2.430227329200001</v>
+        <v>-2.328905680200001</v>
       </c>
       <c r="P53">
-        <v>-8.616260530800002</v>
+        <v>-8.257029229800002</v>
       </c>
       <c r="Q53">
-        <v>-8.356260530800002</v>
+        <v>-7.997029229800003</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1700983941313629</v>
+        <v>0.1712193180574035</v>
       </c>
       <c r="T53">
-        <v>1.612357300248512</v>
+        <v>1.611179248671658</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.0396690892726408</v>
+        <v>0.04107273151690952</v>
       </c>
       <c r="W53">
-        <v>0.1826549392203437</v>
+        <v>0.1761549392203437</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.1803140421483672</v>
+        <v>0.1866942341677705</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5741,13 +5741,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1782462321267431</v>
+        <v>0.175480484850503</v>
       </c>
       <c r="C54">
-        <v>-1.911246959731827</v>
+        <v>-0.2542029306063966</v>
       </c>
       <c r="D54">
-        <v>62.94235304026818</v>
+        <v>64.5993970693936</v>
       </c>
       <c r="E54">
         <v>69.9136</v>
@@ -5774,37 +5774,37 @@
         <v>2.43</v>
       </c>
       <c r="M54">
-        <v>13.74073272</v>
+        <v>13.27114932</v>
       </c>
       <c r="N54">
-        <v>-11.31073272</v>
+        <v>-10.84114932</v>
       </c>
       <c r="O54">
-        <v>-2.4883611984</v>
+        <v>-2.3850528504</v>
       </c>
       <c r="P54">
-        <v>-8.822371521600001</v>
+        <v>-8.456096469600002</v>
       </c>
       <c r="Q54">
-        <v>-8.562371521600001</v>
+        <v>-8.196096469600002</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1733129440090997</v>
+        <v>0.1745926371835994</v>
       </c>
       <c r="T54">
-        <v>1.645948077337022</v>
+        <v>1.644745483018985</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.03890622217124386</v>
+        <v>0.0402828712954305</v>
       </c>
       <c r="W54">
-        <v>0.1828000365430294</v>
+        <v>0.1763000365430294</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.1768464644147448</v>
+        <v>0.183103960433775</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5823,13 +5823,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1799902321267431</v>
+        <v>0.177224484850503</v>
       </c>
       <c r="C55">
-        <v>-3.969109652410737</v>
+        <v>-2.314407763748051</v>
       </c>
       <c r="D55">
-        <v>62.27379034758927</v>
+        <v>63.92849223625196</v>
       </c>
       <c r="E55">
         <v>71.30290000000001</v>
@@ -5856,37 +5856,37 @@
         <v>2.43</v>
       </c>
       <c r="M55">
-        <v>14.00497758</v>
+        <v>13.52636373</v>
       </c>
       <c r="N55">
-        <v>-11.57497758</v>
+        <v>-11.09636373</v>
       </c>
       <c r="O55">
-        <v>-2.5464950676</v>
+        <v>-2.441200020600001</v>
       </c>
       <c r="P55">
-        <v>-9.028482512400002</v>
+        <v>-8.655163709400002</v>
       </c>
       <c r="Q55">
-        <v>-8.768482512400002</v>
+        <v>-8.395163709400002</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1766642832433358</v>
+        <v>0.178109501804527</v>
       </c>
       <c r="T55">
-        <v>1.680968249195257</v>
+        <v>1.679740067764069</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.03817214250763549</v>
+        <v>0.03952281712004502</v>
       </c>
       <c r="W55">
-        <v>0.1829396584950478</v>
+        <v>0.1764396584950477</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.1735097386710703</v>
+        <v>0.1796491687274773</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5905,13 +5905,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1817342321267432</v>
+        <v>0.178968484850503</v>
       </c>
       <c r="C56">
-        <v>-6.012918905710833</v>
+        <v>-4.360820312128851</v>
       </c>
       <c r="D56">
-        <v>61.61928109428919</v>
+        <v>63.27137968787117</v>
       </c>
       <c r="E56">
         <v>72.69220000000001</v>
@@ -5938,37 +5938,37 @@
         <v>2.43</v>
       </c>
       <c r="M56">
-        <v>14.26922244</v>
+        <v>13.78157814</v>
       </c>
       <c r="N56">
-        <v>-11.83922244</v>
+        <v>-11.35157814</v>
       </c>
       <c r="O56">
-        <v>-2.604628936800001</v>
+        <v>-2.497347190800001</v>
       </c>
       <c r="P56">
-        <v>-9.234593503200003</v>
+        <v>-8.854230949200002</v>
       </c>
       <c r="Q56">
-        <v>-8.974593503200003</v>
+        <v>-8.594230949200002</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1801613328790606</v>
+        <v>0.1817792735828863</v>
       </c>
       <c r="T56">
-        <v>1.717511037221241</v>
+        <v>1.716256156193723</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.03746525097971631</v>
+        <v>0.03879091309930344</v>
       </c>
       <c r="W56">
-        <v>0.183074109263658</v>
+        <v>0.176574109263658</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.1702965953623469</v>
+        <v>0.1763223322695611</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5987,13 +5987,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1834782321267431</v>
+        <v>0.180712484850503</v>
       </c>
       <c r="C57">
-        <v>-8.043113223747341</v>
+        <v>-6.393861555783786</v>
       </c>
       <c r="D57">
-        <v>60.97838677625267</v>
+        <v>62.62763844421622</v>
       </c>
       <c r="E57">
         <v>74.08150000000001</v>
@@ -6020,37 +6020,37 @@
         <v>2.43</v>
       </c>
       <c r="M57">
-        <v>14.5334673</v>
+        <v>14.03679255</v>
       </c>
       <c r="N57">
-        <v>-12.1034673</v>
+        <v>-11.60679255</v>
       </c>
       <c r="O57">
-        <v>-2.662762806</v>
+        <v>-2.553494361</v>
       </c>
       <c r="P57">
-        <v>-9.440704494000002</v>
+        <v>-9.053298189000001</v>
       </c>
       <c r="Q57">
-        <v>-9.180704494000002</v>
+        <v>-8.793298189000001</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1838138069430397</v>
+        <v>0.1856121463291727</v>
       </c>
       <c r="T57">
-        <v>1.755677949159491</v>
+        <v>1.754395181886917</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.03678406459826692</v>
+        <v>0.0380856237702252</v>
       </c>
       <c r="W57">
-        <v>0.1832036709134096</v>
+        <v>0.1767036709134096</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.167200293628486</v>
+        <v>0.1731164716828418</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6069,13 +6069,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1852222321267432</v>
+        <v>0.182456484850503</v>
       </c>
       <c r="C58">
-        <v>-10.06011305512619</v>
+        <v>-8.41393551461654</v>
       </c>
       <c r="D58">
-        <v>60.35068694487382</v>
+        <v>61.99686448538348</v>
       </c>
       <c r="E58">
         <v>75.47080000000001</v>
@@ -6102,37 +6102,37 @@
         <v>2.43</v>
       </c>
       <c r="M58">
-        <v>14.79771216</v>
+        <v>14.29200696</v>
       </c>
       <c r="N58">
-        <v>-12.36771216</v>
+        <v>-11.86200696</v>
       </c>
       <c r="O58">
-        <v>-2.720896675200001</v>
+        <v>-2.6096415312</v>
       </c>
       <c r="P58">
-        <v>-9.646815484800003</v>
+        <v>-9.252365428800001</v>
       </c>
       <c r="Q58">
-        <v>-9.386815484800003</v>
+        <v>-8.992365428800001</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1876323025553815</v>
+        <v>0.1896192405639266</v>
       </c>
       <c r="T58">
-        <v>1.795579720731297</v>
+        <v>1.794267799657074</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.0361272063018693</v>
+        <v>0.03740552334575689</v>
       </c>
       <c r="W58">
-        <v>0.1833286053613845</v>
+        <v>0.1768286053613845</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.1642145740994059</v>
+        <v>0.1700251061170768</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6151,13 +6151,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1869662321267431</v>
+        <v>0.184200484850503</v>
       </c>
       <c r="C59">
-        <v>-12.064321712775</v>
+        <v>-10.42143009397934</v>
       </c>
       <c r="D59">
-        <v>59.73577828722502</v>
+        <v>61.37866990602068</v>
       </c>
       <c r="E59">
         <v>76.86010000000002</v>
@@ -6184,37 +6184,37 @@
         <v>2.43</v>
       </c>
       <c r="M59">
-        <v>15.06195702</v>
+        <v>14.54722137</v>
       </c>
       <c r="N59">
-        <v>-12.63195702</v>
+        <v>-12.11722137</v>
       </c>
       <c r="O59">
-        <v>-2.779030544400001</v>
+        <v>-2.665788701400001</v>
       </c>
       <c r="P59">
-        <v>-9.852926475600002</v>
+        <v>-9.451432668600003</v>
       </c>
       <c r="Q59">
-        <v>-9.592926475600002</v>
+        <v>-9.191432668600003</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.191628402614809</v>
+        <v>0.1938127112747156</v>
       </c>
       <c r="T59">
-        <v>1.837337388655281</v>
+        <v>1.835994957788634</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.0354933956649944</v>
+        <v>0.03674928609407694</v>
       </c>
       <c r="W59">
-        <v>0.1834491561445181</v>
+        <v>0.1769491561445181</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.1613336166590654</v>
+        <v>0.1670422095185315</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1887102321267431</v>
+        <v>0.185944484850503</v>
       </c>
       <c r="C60">
-        <v>-14.056126238109</v>
+        <v>-12.41671788016292</v>
       </c>
       <c r="D60">
-        <v>59.133273761891</v>
+        <v>60.77268211983707</v>
       </c>
       <c r="E60">
         <v>78.24939999999999</v>
@@ -6266,37 +6266,37 @@
         <v>2.43</v>
       </c>
       <c r="M60">
-        <v>15.32620188</v>
+        <v>14.80243578</v>
       </c>
       <c r="N60">
-        <v>-12.89620188</v>
+        <v>-12.37243578</v>
       </c>
       <c r="O60">
-        <v>-2.8371644136</v>
+        <v>-2.7219358716</v>
       </c>
       <c r="P60">
-        <v>-10.0590374664</v>
+        <v>-9.650499908399999</v>
       </c>
       <c r="Q60">
-        <v>-9.7990374664</v>
+        <v>-9.390499908399999</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1958147931532567</v>
+        <v>0.1982058710669707</v>
       </c>
       <c r="T60">
-        <v>1.881083516956596</v>
+        <v>1.879709123450268</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.03488144056732209</v>
+        <v>0.03611567771314459</v>
       </c>
       <c r="W60">
-        <v>0.1835655500040953</v>
+        <v>0.1770655500040953</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.1585520025787367</v>
+        <v>0.1641621714233845</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6315,13 +6315,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1904542321267431</v>
+        <v>0.187688484850503</v>
       </c>
       <c r="C61">
-        <v>-16.0358982134225</v>
+        <v>-14.40015688922408</v>
       </c>
       <c r="D61">
-        <v>58.5428017865775</v>
+        <v>60.17854311077592</v>
       </c>
       <c r="E61">
         <v>79.6387</v>
@@ -6348,37 +6348,37 @@
         <v>2.43</v>
       </c>
       <c r="M61">
-        <v>15.59044674</v>
+        <v>15.05765019</v>
       </c>
       <c r="N61">
-        <v>-13.16044674</v>
+        <v>-12.62765019</v>
       </c>
       <c r="O61">
-        <v>-2.8952982828</v>
+        <v>-2.7780830418</v>
       </c>
       <c r="P61">
-        <v>-10.2651484572</v>
+        <v>-9.8495671482</v>
       </c>
       <c r="Q61">
-        <v>-10.0051484572</v>
+        <v>-9.5895671482</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2002053978643118</v>
+        <v>0.2028133313368968</v>
       </c>
       <c r="T61">
-        <v>1.926963602736026</v>
+        <v>1.92555568743686</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.03429022971024883</v>
+        <v>0.03550354758241332</v>
       </c>
       <c r="W61">
-        <v>0.1836779983091107</v>
+        <v>0.1771779983091107</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.155864680501131</v>
+        <v>0.1613797617382423</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6397,13 +6397,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1921982321267431</v>
+        <v>0.189432484850503</v>
       </c>
       <c r="C62">
-        <v>-18.00399452608868</v>
+        <v>-16.37209127231327</v>
       </c>
       <c r="D62">
-        <v>57.96400547391133</v>
+        <v>59.59590872768674</v>
       </c>
       <c r="E62">
         <v>81.02800000000001</v>
@@ -6430,37 +6430,37 @@
         <v>2.43</v>
       </c>
       <c r="M62">
-        <v>15.8546916</v>
+        <v>15.3128646</v>
       </c>
       <c r="N62">
-        <v>-13.4246916</v>
+        <v>-12.8828646</v>
       </c>
       <c r="O62">
-        <v>-2.953432152</v>
+        <v>-2.834230212</v>
       </c>
       <c r="P62">
-        <v>-10.471259448</v>
+        <v>-10.048634388</v>
       </c>
       <c r="Q62">
-        <v>-10.211259448</v>
+        <v>-9.788634388</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2048155328109196</v>
+        <v>0.2076511646203192</v>
       </c>
       <c r="T62">
-        <v>1.975137692804427</v>
+        <v>1.973694579622781</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.03371872588174468</v>
+        <v>0.0349118217893731</v>
       </c>
       <c r="W62">
-        <v>0.1837866983372922</v>
+        <v>0.1772866983372922</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.1532669358261122</v>
+        <v>0.158690099042605</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6479,13 +6479,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1939422321267431</v>
+        <v>0.191176484850503</v>
       </c>
       <c r="C63">
-        <v>-19.96075808787103</v>
+        <v>-18.33285198042248</v>
       </c>
       <c r="D63">
-        <v>57.39654191212897</v>
+        <v>59.02444801957753</v>
       </c>
       <c r="E63">
         <v>82.4173</v>
@@ -6512,37 +6512,37 @@
         <v>2.43</v>
       </c>
       <c r="M63">
-        <v>16.11893646</v>
+        <v>15.56807901</v>
       </c>
       <c r="N63">
-        <v>-13.68893646</v>
+        <v>-13.13807901</v>
       </c>
       <c r="O63">
-        <v>-3.0115660212</v>
+        <v>-2.8903773822</v>
       </c>
       <c r="P63">
-        <v>-10.6773704388</v>
+        <v>-10.2477016278</v>
       </c>
       <c r="Q63">
-        <v>-10.4173704388</v>
+        <v>-9.9877016278</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2096620849342765</v>
+        <v>0.2127370919182761</v>
       </c>
       <c r="T63">
-        <v>2.025782249030181</v>
+        <v>2.024302132946442</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.0331659598836833</v>
+        <v>0.03433949684200633</v>
       </c>
       <c r="W63">
-        <v>0.1838918344301234</v>
+        <v>0.1773918344301234</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.1507543631076513</v>
+        <v>0.1560886220091197</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6561,13 +6561,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1956862321267431</v>
+        <v>0.192920484850503</v>
       </c>
       <c r="C64">
-        <v>-21.90651851239217</v>
+        <v>-20.28275739125098</v>
       </c>
       <c r="D64">
-        <v>56.84008148760784</v>
+        <v>58.46384260874903</v>
       </c>
       <c r="E64">
         <v>83.8066</v>
@@ -6594,37 +6594,37 @@
         <v>2.43</v>
       </c>
       <c r="M64">
-        <v>16.38318132</v>
+        <v>15.82329342</v>
       </c>
       <c r="N64">
-        <v>-13.95318132</v>
+        <v>-13.39329342</v>
       </c>
       <c r="O64">
-        <v>-3.0696998904</v>
+        <v>-2.9465245524</v>
       </c>
       <c r="P64">
-        <v>-10.8834814296</v>
+        <v>-10.4467688676</v>
       </c>
       <c r="Q64">
-        <v>-10.6234814296</v>
+        <v>-10.1867688676</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2147637187483364</v>
+        <v>0.218090699600336</v>
       </c>
       <c r="T64">
-        <v>2.079092308215186</v>
+        <v>2.077573241708191</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.03263102504684969</v>
+        <v>0.03378563398971591</v>
       </c>
       <c r="W64">
-        <v>0.1839935790360892</v>
+        <v>0.1774935790360892</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.148322841122044</v>
+        <v>0.1535710635896177</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6643,13 +6643,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1974302321267432</v>
+        <v>0.194664484850503</v>
       </c>
       <c r="C65">
-        <v>-23.84159275357253</v>
+        <v>-22.22211390068368</v>
       </c>
       <c r="D65">
-        <v>56.29430724642747</v>
+        <v>57.91378609931633</v>
       </c>
       <c r="E65">
         <v>85.19590000000001</v>
@@ -6676,37 +6676,37 @@
         <v>2.43</v>
       </c>
       <c r="M65">
-        <v>16.64742618</v>
+        <v>16.07850783</v>
       </c>
       <c r="N65">
-        <v>-14.21742618</v>
+        <v>-13.64850783</v>
       </c>
       <c r="O65">
-        <v>-3.127833759600001</v>
+        <v>-3.002671722600001</v>
       </c>
       <c r="P65">
-        <v>-11.0895924204</v>
+        <v>-10.6458361074</v>
       </c>
       <c r="Q65">
-        <v>-10.8295924204</v>
+        <v>-10.3858361074</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2201411165523455</v>
+        <v>0.2237336914814262</v>
       </c>
       <c r="T65">
-        <v>2.135283992221002</v>
+        <v>2.133723869862466</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.03211307226832827</v>
+        <v>0.03324935408511723</v>
       </c>
       <c r="W65">
-        <v>0.184092093654564</v>
+        <v>0.177592093654564</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.145968510310583</v>
+        <v>0.1511334276596238</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6725,13 +6725,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1991742321267432</v>
+        <v>0.196408484850503</v>
       </c>
       <c r="C66">
-        <v>-25.76628570763771</v>
+        <v>-24.1512164811915</v>
       </c>
       <c r="D66">
-        <v>55.7589142923623</v>
+        <v>57.37398351880852</v>
       </c>
       <c r="E66">
         <v>86.58520000000001</v>
@@ -6758,37 +6758,37 @@
         <v>2.43</v>
       </c>
       <c r="M66">
-        <v>16.91167104</v>
+        <v>16.33372224</v>
       </c>
       <c r="N66">
-        <v>-14.48167104</v>
+        <v>-13.90372224</v>
       </c>
       <c r="O66">
-        <v>-3.1859676288</v>
+        <v>-3.058818892800001</v>
       </c>
       <c r="P66">
-        <v>-11.2957034112</v>
+        <v>-10.8449033472</v>
       </c>
       <c r="Q66">
-        <v>-11.0357034112</v>
+        <v>-10.5849033472</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2258172586787996</v>
+        <v>0.2296901829114658</v>
       </c>
       <c r="T66">
-        <v>2.194597436449363</v>
+        <v>2.192993977358646</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.03161130551413564</v>
+        <v>0.03272983292753728</v>
       </c>
       <c r="W66">
-        <v>0.1841875296912114</v>
+        <v>0.1776875296912114</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.1436877523369802</v>
+        <v>0.1487719678524422</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6807,13 +6807,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.2009182321267431</v>
+        <v>0.198152484850503</v>
       </c>
       <c r="C67">
-        <v>-27.68089078109639</v>
+        <v>-26.07034920929148</v>
       </c>
       <c r="D67">
-        <v>55.23360921890362</v>
+        <v>56.84415079070853</v>
       </c>
       <c r="E67">
         <v>87.97450000000001</v>
@@ -6840,37 +6840,37 @@
         <v>2.43</v>
       </c>
       <c r="M67">
-        <v>17.1759159</v>
+        <v>16.58893665</v>
       </c>
       <c r="N67">
-        <v>-14.7459159</v>
+        <v>-14.15893665</v>
       </c>
       <c r="O67">
-        <v>-3.244101498000001</v>
+        <v>-3.114966063</v>
       </c>
       <c r="P67">
-        <v>-11.501814402</v>
+        <v>-11.043970587</v>
       </c>
       <c r="Q67">
-        <v>-11.241814402</v>
+        <v>-10.783970587</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2318177517839081</v>
+        <v>0.2359870452803648</v>
       </c>
       <c r="T67">
-        <v>2.257300220347917</v>
+        <v>2.255650948140322</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.03112497773699508</v>
+        <v>0.0322262970363444</v>
       </c>
       <c r="W67">
-        <v>0.1842800292344235</v>
+        <v>0.1777800292344235</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.1414771715317958</v>
+        <v>0.14648316834702</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6889,13 +6889,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.2026622321267431</v>
+        <v>0.199896484850503</v>
       </c>
       <c r="C68">
-        <v>-29.58569042691263</v>
+        <v>-27.97978576404878</v>
       </c>
       <c r="D68">
-        <v>54.71810957308737</v>
+        <v>56.32401423595122</v>
       </c>
       <c r="E68">
         <v>89.36380000000001</v>
@@ -6922,37 +6922,37 @@
         <v>2.43</v>
       </c>
       <c r="M68">
-        <v>17.44016076</v>
+        <v>16.84415106</v>
       </c>
       <c r="N68">
-        <v>-15.01016076</v>
+        <v>-14.41415106</v>
       </c>
       <c r="O68">
-        <v>-3.3022353672</v>
+        <v>-3.1711132332</v>
       </c>
       <c r="P68">
-        <v>-11.7079253928</v>
+        <v>-11.2430378268</v>
       </c>
       <c r="Q68">
-        <v>-11.4479253928</v>
+        <v>-10.9830378268</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2381712150716701</v>
+        <v>0.2426543113180226</v>
       </c>
       <c r="T68">
-        <v>2.323691403299326</v>
+        <v>2.321993623085625</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.03065338716522244</v>
+        <v>0.031738019808521</v>
       </c>
       <c r="W68">
-        <v>0.1843697257611747</v>
+        <v>0.1778697257611747</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.1393335780237384</v>
+        <v>0.1442637264023682</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6971,13 +6971,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.2044062321267431</v>
+        <v>0.201640484850503</v>
       </c>
       <c r="C69">
-        <v>-31.48095665093082</v>
+        <v>-29.87978989845841</v>
       </c>
       <c r="D69">
-        <v>54.21214334906919</v>
+        <v>55.81331010154161</v>
       </c>
       <c r="E69">
         <v>90.75310000000002</v>
@@ -7004,37 +7004,37 @@
         <v>2.43</v>
       </c>
       <c r="M69">
-        <v>17.70440562</v>
+        <v>17.09936547</v>
       </c>
       <c r="N69">
-        <v>-15.27440562</v>
+        <v>-14.66936547</v>
       </c>
       <c r="O69">
-        <v>-3.360369236400001</v>
+        <v>-3.227260403400001</v>
       </c>
       <c r="P69">
-        <v>-11.9140363836</v>
+        <v>-11.4421050666</v>
       </c>
       <c r="Q69">
-        <v>-11.6540363836</v>
+        <v>-11.1821050666</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2449097367405087</v>
+        <v>0.2497256540852354</v>
       </c>
       <c r="T69">
-        <v>2.394106294308397</v>
+        <v>2.392357066209432</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.03019587392395046</v>
+        <v>0.03126431802033412</v>
       </c>
       <c r="W69">
-        <v>0.1844567447796646</v>
+        <v>0.1779567447796646</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.137253972381593</v>
+        <v>0.1421105364560642</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -7053,13 +7053,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.2061502321267432</v>
+        <v>0.203384484850503</v>
       </c>
       <c r="C70">
-        <v>-33.36695149046127</v>
+        <v>-31.77061588541228</v>
       </c>
       <c r="D70">
-        <v>53.71544850953874</v>
+        <v>55.31178411458772</v>
       </c>
       <c r="E70">
         <v>92.14240000000001</v>
@@ -7086,37 +7086,37 @@
         <v>2.43</v>
       </c>
       <c r="M70">
-        <v>17.96865048</v>
+        <v>17.35457988</v>
       </c>
       <c r="N70">
-        <v>-15.53865048</v>
+        <v>-14.92457988</v>
       </c>
       <c r="O70">
-        <v>-3.4185031056</v>
+        <v>-3.283407573600001</v>
       </c>
       <c r="P70">
-        <v>-12.1201473744</v>
+        <v>-11.6411723064</v>
       </c>
       <c r="Q70">
-        <v>-11.8601473744</v>
+        <v>-11.3811723064</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2520694160136496</v>
+        <v>0.2572389557753991</v>
       </c>
       <c r="T70">
-        <v>2.468922116005534</v>
+        <v>2.467118224528477</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.0297518169544806</v>
+        <v>0.03080454863768214</v>
       </c>
       <c r="W70">
-        <v>0.1845412044152578</v>
+        <v>0.1780412044152578</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.1352355316112754</v>
+        <v>0.1400206756258279</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7135,13 +7135,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2078942321267432</v>
+        <v>0.205128484850503</v>
       </c>
       <c r="C71">
-        <v>-35.24392746679578</v>
+        <v>-33.65250893983684</v>
       </c>
       <c r="D71">
-        <v>53.22777253320423</v>
+        <v>54.81919106016317</v>
       </c>
       <c r="E71">
         <v>93.53170000000001</v>
@@ -7168,37 +7168,37 @@
         <v>2.43</v>
       </c>
       <c r="M71">
-        <v>18.23289534</v>
+        <v>17.60979429</v>
       </c>
       <c r="N71">
-        <v>-15.80289534</v>
+        <v>-15.17979429</v>
       </c>
       <c r="O71">
-        <v>-3.476636974800001</v>
+        <v>-3.339554743800001</v>
       </c>
       <c r="P71">
-        <v>-12.3262583652</v>
+        <v>-11.8402395462</v>
       </c>
       <c r="Q71">
-        <v>-12.0662583652</v>
+        <v>-11.5802395462</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.259691010078606</v>
+        <v>0.2652369866068635</v>
       </c>
       <c r="T71">
-        <v>2.548564764908939</v>
+        <v>2.546702683384234</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.02932063120151711</v>
+        <v>0.0303581059038027</v>
       </c>
       <c r="W71">
-        <v>0.1846232159454715</v>
+        <v>0.1781232159454715</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.1332755963705323</v>
+        <v>0.1379913904718304</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7217,13 +7217,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2096382321267432</v>
+        <v>0.206872484850503</v>
       </c>
       <c r="C72">
-        <v>-37.11212801329484</v>
+        <v>-35.52570561847236</v>
       </c>
       <c r="D72">
-        <v>52.74887198670518</v>
+        <v>54.33529438152766</v>
       </c>
       <c r="E72">
         <v>94.92100000000002</v>
@@ -7250,37 +7250,37 @@
         <v>2.43</v>
       </c>
       <c r="M72">
-        <v>18.4971402</v>
+        <v>17.8650087</v>
       </c>
       <c r="N72">
-        <v>-16.0671402</v>
+        <v>-15.4350087</v>
       </c>
       <c r="O72">
-        <v>-3.534770844000001</v>
+        <v>-3.395701914000001</v>
       </c>
       <c r="P72">
-        <v>-12.532369356</v>
+        <v>-12.039306786</v>
       </c>
       <c r="Q72">
-        <v>-12.272369356</v>
+        <v>-11.779306786</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2678207104145595</v>
+        <v>0.273768219493759</v>
       </c>
       <c r="T72">
-        <v>2.633516923739236</v>
+        <v>2.631592772830376</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.02890176504149543</v>
+        <v>0.02992441867660551</v>
       </c>
       <c r="W72">
-        <v>0.1847028842891076</v>
+        <v>0.1782028842891075</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.1313716592795247</v>
+        <v>0.1360200848936614</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7299,13 +7299,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.2113822321267431</v>
+        <v>0.208616484850503</v>
       </c>
       <c r="C73">
-        <v>-38.97178788057149</v>
+        <v>-37.39043419866459</v>
       </c>
       <c r="D73">
-        <v>52.27851211942851</v>
+        <v>53.85986580133541</v>
       </c>
       <c r="E73">
         <v>96.3103</v>
@@ -7332,37 +7332,37 @@
         <v>2.43</v>
       </c>
       <c r="M73">
-        <v>18.76138506</v>
+        <v>18.12022311</v>
       </c>
       <c r="N73">
-        <v>-16.33138506</v>
+        <v>-15.69022311</v>
       </c>
       <c r="O73">
-        <v>-3.5929047132</v>
+        <v>-3.4518490842</v>
       </c>
       <c r="P73">
-        <v>-12.7384803468</v>
+        <v>-12.2383740258</v>
       </c>
       <c r="Q73">
-        <v>-12.4784803468</v>
+        <v>-11.9783740258</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2765110797391994</v>
+        <v>0.2828878132694058</v>
       </c>
       <c r="T73">
-        <v>2.724327852144037</v>
+        <v>2.722337351203836</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.02849469792823495</v>
+        <v>0.02950294799101952</v>
       </c>
       <c r="W73">
-        <v>0.1847803084540497</v>
+        <v>0.1782803084540497</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.1295213542192497</v>
+        <v>0.1341043090500887</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7381,13 +7381,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.2131262321267431</v>
+        <v>0.210360484850503</v>
       </c>
       <c r="C74">
-        <v>-40.82313352018885</v>
+        <v>-39.2469150374424</v>
       </c>
       <c r="D74">
-        <v>51.81646647981115</v>
+        <v>53.3926849625576</v>
       </c>
       <c r="E74">
         <v>97.6996</v>
@@ -7414,37 +7414,37 @@
         <v>2.43</v>
       </c>
       <c r="M74">
-        <v>19.02562992</v>
+        <v>18.37543752</v>
       </c>
       <c r="N74">
-        <v>-16.59562992</v>
+        <v>-15.94543752</v>
       </c>
       <c r="O74">
-        <v>-3.6510385824</v>
+        <v>-3.507996254400001</v>
       </c>
       <c r="P74">
-        <v>-12.9445913376</v>
+        <v>-12.4374412656</v>
       </c>
       <c r="Q74">
-        <v>-12.6845913376</v>
+        <v>-12.1774412656</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2858221897298851</v>
+        <v>0.292658806600456</v>
       </c>
       <c r="T74">
-        <v>2.821625275434895</v>
+        <v>2.819563685175402</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.02809893823478724</v>
+        <v>0.02909318482447758</v>
       </c>
       <c r="W74">
-        <v>0.1848555819477435</v>
+        <v>0.1783555819477435</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.1277224465217601</v>
+        <v>0.1322417492021708</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7463,13 +7463,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.2148702321267431</v>
+        <v>0.212104484850503</v>
       </c>
       <c r="C75">
-        <v>-42.66638344818842</v>
+        <v>-41.0953609120681</v>
       </c>
       <c r="D75">
-        <v>51.36251655181159</v>
+        <v>52.9335390879319</v>
       </c>
       <c r="E75">
         <v>99.08890000000001</v>
@@ -7496,37 +7496,37 @@
         <v>2.43</v>
       </c>
       <c r="M75">
-        <v>19.28987478</v>
+        <v>18.63065193</v>
       </c>
       <c r="N75">
-        <v>-16.85987478</v>
+        <v>-16.20065193</v>
       </c>
       <c r="O75">
-        <v>-3.709172451600001</v>
+        <v>-3.564143424600001</v>
       </c>
       <c r="P75">
-        <v>-13.1507023284</v>
+        <v>-12.6365085054</v>
       </c>
       <c r="Q75">
-        <v>-12.8907023284</v>
+        <v>-12.3765085054</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.2958230115717327</v>
+        <v>0.3031535772152877</v>
       </c>
       <c r="T75">
-        <v>2.926129915265817</v>
+        <v>2.923991969811528</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.02771402127266686</v>
+        <v>0.02869464804606008</v>
       </c>
       <c r="W75">
-        <v>0.1849287931539388</v>
+        <v>0.1784287931539388</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.1259728239666675</v>
+        <v>0.1304302183911822</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7545,13 +7545,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.2166142321267431</v>
+        <v>0.213848484850503</v>
       </c>
       <c r="C76">
-        <v>-44.50174858967611</v>
+        <v>-42.93597734316668</v>
       </c>
       <c r="D76">
-        <v>50.91645141032389</v>
+        <v>52.48222265683332</v>
       </c>
       <c r="E76">
         <v>100.4782</v>
@@ -7578,37 +7578,37 @@
         <v>2.43</v>
       </c>
       <c r="M76">
-        <v>19.55411964</v>
+        <v>18.88586634</v>
       </c>
       <c r="N76">
-        <v>-17.12411964</v>
+        <v>-16.45586634</v>
       </c>
       <c r="O76">
-        <v>-3.7673063208</v>
+        <v>-3.6202905948</v>
       </c>
       <c r="P76">
-        <v>-13.3568133192</v>
+        <v>-12.8355757452</v>
       </c>
       <c r="Q76">
-        <v>-13.0968133192</v>
+        <v>-12.5755757452</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3065931274014147</v>
+        <v>0.3144556378774141</v>
       </c>
       <c r="T76">
-        <v>3.038673373545272</v>
+        <v>3.036453199419663</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.02733950747168488</v>
+        <v>0.02830688253192414</v>
       </c>
       <c r="W76">
-        <v>0.1850000256788855</v>
+        <v>0.1785000256788855</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.1242704885076585</v>
+        <v>0.1286676478723824</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7627,13 +7627,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.2183582321267431</v>
+        <v>0.215592484850503</v>
       </c>
       <c r="C77">
-        <v>-46.32943260560711</v>
+        <v>-44.7689629014644</v>
       </c>
       <c r="D77">
-        <v>50.47806739439289</v>
+        <v>52.03853709853561</v>
       </c>
       <c r="E77">
         <v>101.8675</v>
@@ -7660,37 +7660,37 @@
         <v>2.43</v>
       </c>
       <c r="M77">
-        <v>19.8183645</v>
+        <v>19.14108075</v>
       </c>
       <c r="N77">
-        <v>-17.3883645</v>
+        <v>-16.71108075</v>
       </c>
       <c r="O77">
-        <v>-3.825440190000001</v>
+        <v>-3.676437765</v>
       </c>
       <c r="P77">
-        <v>-13.56292431</v>
+        <v>-13.034642985</v>
       </c>
       <c r="Q77">
-        <v>-13.30292431</v>
+        <v>-12.774642985</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3182248524974713</v>
+        <v>0.3266618633925107</v>
       </c>
       <c r="T77">
-        <v>3.160220308487083</v>
+        <v>3.15791132739645</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.02697498070539574</v>
+        <v>0.02792945743149848</v>
       </c>
       <c r="W77">
-        <v>0.1850693586698337</v>
+        <v>0.1785693586698337</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.1226135486608897</v>
+        <v>0.126952079234084</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7709,13 +7709,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.2201022321267431</v>
+        <v>0.217336484850503</v>
       </c>
       <c r="C78">
-        <v>-48.14963220283327</v>
+        <v>-46.59450949909881</v>
       </c>
       <c r="D78">
-        <v>50.04716779716674</v>
+        <v>51.6022905009012</v>
       </c>
       <c r="E78">
         <v>103.2568</v>
@@ -7742,37 +7742,37 @@
         <v>2.43</v>
       </c>
       <c r="M78">
-        <v>20.08260936</v>
+        <v>19.39629516</v>
       </c>
       <c r="N78">
-        <v>-17.65260936</v>
+        <v>-16.96629516</v>
       </c>
       <c r="O78">
-        <v>-3.883574059200001</v>
+        <v>-3.7325849352</v>
       </c>
       <c r="P78">
-        <v>-13.7690353008</v>
+        <v>-13.2337102248</v>
       </c>
       <c r="Q78">
-        <v>-13.5090353008</v>
+        <v>-12.9737102248</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3308258880181993</v>
+        <v>0.3398852743671987</v>
       </c>
       <c r="T78">
-        <v>3.291896154674045</v>
+        <v>3.289490966037969</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.0266200467487458</v>
+        <v>0.02756196457055771</v>
       </c>
       <c r="W78">
-        <v>0.1851368671083886</v>
+        <v>0.1786368671083886</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.121000212494299</v>
+        <v>0.1252816571388987</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2218462321267431</v>
+        <v>0.219080484850503</v>
       </c>
       <c r="C79">
-        <v>-49.96253742840504</v>
+        <v>-48.41280266639794</v>
       </c>
       <c r="D79">
-        <v>49.62356257159496</v>
+        <v>51.17329733360206</v>
       </c>
       <c r="E79">
         <v>104.6461</v>
@@ -7824,37 +7824,37 @@
         <v>2.43</v>
       </c>
       <c r="M79">
-        <v>20.34685422</v>
+        <v>19.65150957</v>
       </c>
       <c r="N79">
-        <v>-17.91685422</v>
+        <v>-17.22150957</v>
       </c>
       <c r="O79">
-        <v>-3.9417079284</v>
+        <v>-3.7887321054</v>
       </c>
       <c r="P79">
-        <v>-13.9751462916</v>
+        <v>-13.4327774646</v>
       </c>
       <c r="Q79">
-        <v>-13.7151462916</v>
+        <v>-13.1727774646</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.344522665758121</v>
+        <v>0.3542585471657725</v>
       </c>
       <c r="T79">
-        <v>3.435022074442482</v>
+        <v>3.432512312387446</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.02627433185590495</v>
+        <v>0.02720401697873229</v>
       </c>
       <c r="W79">
-        <v>0.1852026220810069</v>
+        <v>0.1787026220810069</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.1194287811632043</v>
+        <v>0.1236546226306012</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7873,13 +7873,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2235902321267431</v>
+        <v>0.220824484850503</v>
       </c>
       <c r="C80">
-        <v>-51.76833194905254</v>
+        <v>-50.22402181496782</v>
       </c>
       <c r="D80">
-        <v>49.20706805094747</v>
+        <v>50.75137818503219</v>
       </c>
       <c r="E80">
         <v>106.0354</v>
@@ -7906,37 +7906,37 @@
         <v>2.43</v>
       </c>
       <c r="M80">
-        <v>20.61109908</v>
+        <v>19.90672398</v>
       </c>
       <c r="N80">
-        <v>-18.18109908</v>
+        <v>-17.47672398</v>
       </c>
       <c r="O80">
-        <v>-3.999841797600001</v>
+        <v>-3.844879275600001</v>
       </c>
       <c r="P80">
-        <v>-14.1812572824</v>
+        <v>-13.6318447044</v>
       </c>
       <c r="Q80">
-        <v>-13.9212572824</v>
+        <v>-13.3718447044</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.3594646051107629</v>
+        <v>0.3699384811278532</v>
       </c>
       <c r="T80">
-        <v>3.591159441462594</v>
+        <v>3.588535599314148</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.02593748144749591</v>
+        <v>0.026855247530287</v>
       </c>
       <c r="W80">
-        <v>0.1852666910286863</v>
+        <v>0.1787666910286863</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.1178976429431632</v>
+        <v>0.1220693069558499</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7955,13 +7955,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2253342321267431</v>
+        <v>0.222568484850503</v>
       </c>
       <c r="C81">
-        <v>-53.56719331670984</v>
+        <v>-52.02834048787086</v>
       </c>
       <c r="D81">
-        <v>48.79750668329017</v>
+        <v>50.33635951212915</v>
       </c>
       <c r="E81">
         <v>107.4247</v>
@@ -7988,37 +7988,37 @@
         <v>2.43</v>
       </c>
       <c r="M81">
-        <v>20.87534394</v>
+        <v>20.16193839</v>
       </c>
       <c r="N81">
-        <v>-18.44534394</v>
+        <v>-17.73193839</v>
       </c>
       <c r="O81">
-        <v>-4.057975666800001</v>
+        <v>-3.901026445800001</v>
       </c>
       <c r="P81">
-        <v>-14.3873682732</v>
+        <v>-13.8309119442</v>
       </c>
       <c r="Q81">
-        <v>-14.1273682732</v>
+        <v>-13.5709119442</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.3758295863065135</v>
+        <v>0.3871117421339414</v>
       </c>
       <c r="T81">
-        <v>3.762167033913194</v>
+        <v>3.759418246900536</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.0256091588975276</v>
+        <v>0.02651530768813146</v>
       </c>
       <c r="W81">
-        <v>0.1853291379776903</v>
+        <v>0.1788291379776903</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.1164052677160345</v>
+        <v>0.120524125855143</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -8037,13 +8037,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2270782321267431</v>
+        <v>0.224312484850503</v>
       </c>
       <c r="C82">
-        <v>-55.35929322088837</v>
+        <v>-53.8259265976295</v>
       </c>
       <c r="D82">
-        <v>48.39470677911164</v>
+        <v>49.92807340237051</v>
       </c>
       <c r="E82">
         <v>108.814</v>
@@ -8070,37 +8070,37 @@
         <v>2.43</v>
       </c>
       <c r="M82">
-        <v>21.1395888</v>
+        <v>20.4171528</v>
       </c>
       <c r="N82">
-        <v>-18.7095888</v>
+        <v>-17.9871528</v>
       </c>
       <c r="O82">
-        <v>-4.116109536000001</v>
+        <v>-3.957173616</v>
       </c>
       <c r="P82">
-        <v>-14.593479264</v>
+        <v>-14.029979184</v>
       </c>
       <c r="Q82">
-        <v>-14.333479264</v>
+        <v>-13.769979184</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.3938310656218392</v>
+        <v>0.4060023292406384</v>
       </c>
       <c r="T82">
-        <v>3.950275385608854</v>
+        <v>3.947389159245563</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.02528904441130851</v>
+        <v>0.02618386634202982</v>
       </c>
       <c r="W82">
-        <v>0.1853900237529691</v>
+        <v>0.1788900237529691</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.1149502018695842</v>
+        <v>0.1190175742819537</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8119,13 +8119,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2288222321267432</v>
+        <v>0.226056484850503</v>
       </c>
       <c r="C83">
-        <v>-57.14479772865335</v>
+        <v>-55.61694265273984</v>
       </c>
       <c r="D83">
-        <v>47.99850227134666</v>
+        <v>49.52635734726017</v>
       </c>
       <c r="E83">
         <v>110.2033</v>
@@ -8152,37 +8152,37 @@
         <v>2.43</v>
       </c>
       <c r="M83">
-        <v>21.40383366</v>
+        <v>20.67236721</v>
       </c>
       <c r="N83">
-        <v>-18.97383366</v>
+        <v>-18.24236721</v>
       </c>
       <c r="O83">
-        <v>-4.174243405200001</v>
+        <v>-4.0133207862</v>
       </c>
       <c r="P83">
-        <v>-14.7995902548</v>
+        <v>-14.2290464238</v>
       </c>
       <c r="Q83">
-        <v>-14.5395902548</v>
+        <v>-13.9690464238</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4137274374966729</v>
+        <v>0.4268813992006721</v>
       </c>
       <c r="T83">
-        <v>4.158184616430373</v>
+        <v>4.155146483416383</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.02497683398647754</v>
+        <v>0.02586060873286896</v>
       </c>
       <c r="W83">
-        <v>0.185449406175772</v>
+        <v>0.178949406175772</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.1135310635748978</v>
+        <v>0.1175482215130407</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8201,13 +8201,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2305662321267432</v>
+        <v>0.227800484850503</v>
       </c>
       <c r="C84">
-        <v>-58.923867512908</v>
+        <v>-57.40154597333761</v>
       </c>
       <c r="D84">
-        <v>47.60873248709202</v>
+        <v>49.1310540266624</v>
       </c>
       <c r="E84">
         <v>111.5926</v>
@@ -8234,37 +8234,37 @@
         <v>2.43</v>
       </c>
       <c r="M84">
-        <v>21.66807852000001</v>
+        <v>20.92758162000001</v>
       </c>
       <c r="N84">
-        <v>-19.23807852000001</v>
+        <v>-18.49758162000001</v>
       </c>
       <c r="O84">
-        <v>-4.232377274400001</v>
+        <v>-4.069467956400001</v>
       </c>
       <c r="P84">
-        <v>-15.0057012456</v>
+        <v>-14.4281136636</v>
       </c>
       <c r="Q84">
-        <v>-14.7457012456</v>
+        <v>-14.16811366360001</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.4358345173575992</v>
+        <v>0.4500803658229316</v>
       </c>
       <c r="T84">
-        <v>4.389194872898727</v>
+        <v>4.385987954717293</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.02467223845005708</v>
+        <v>0.02554523545563885</v>
       </c>
       <c r="W84">
-        <v>0.1855073402467992</v>
+        <v>0.1790073402467992</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.1121465384093503</v>
+        <v>0.1161147066165402</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8283,13 +8283,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2323102321267431</v>
+        <v>0.229544484850503</v>
       </c>
       <c r="C85">
-        <v>-60.69665806964475</v>
+        <v>-59.17988889661744</v>
       </c>
       <c r="D85">
-        <v>47.22524193035526</v>
+        <v>48.74201110338257</v>
       </c>
       <c r="E85">
         <v>112.9819</v>
@@ -8316,37 +8316,37 @@
         <v>2.43</v>
       </c>
       <c r="M85">
-        <v>21.93232338</v>
+        <v>21.18279603</v>
       </c>
       <c r="N85">
-        <v>-19.50232338</v>
+        <v>-18.75279603</v>
       </c>
       <c r="O85">
-        <v>-4.290511143600001</v>
+        <v>-4.125615126600001</v>
       </c>
       <c r="P85">
-        <v>-15.2118122364</v>
+        <v>-14.6271809034</v>
       </c>
       <c r="Q85">
-        <v>-14.9518122364</v>
+        <v>-14.3671809034</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.4605424301433404</v>
+        <v>0.4760086226360453</v>
       </c>
       <c r="T85">
-        <v>4.647382806598653</v>
+        <v>4.643987246171251</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.02437498256511664</v>
+        <v>0.02523746153448658</v>
       </c>
       <c r="W85">
-        <v>0.1855638783161148</v>
+        <v>0.1790638783161148</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.1107953752959847</v>
+        <v>0.1147157342476662</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8365,13 +8365,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2340542321267431</v>
+        <v>0.231288484850503</v>
       </c>
       <c r="C86">
-        <v>-62.46331992478032</v>
+        <v>-60.95211897256955</v>
       </c>
       <c r="D86">
-        <v>46.84788007521968</v>
+        <v>48.35908102743045</v>
       </c>
       <c r="E86">
         <v>114.3712</v>
@@ -8398,37 +8398,37 @@
         <v>2.43</v>
       </c>
       <c r="M86">
-        <v>22.19656824</v>
+        <v>21.43801044</v>
       </c>
       <c r="N86">
-        <v>-19.76656824</v>
+        <v>-19.00801044</v>
       </c>
       <c r="O86">
-        <v>-4.3486450128</v>
+        <v>-4.1817622968</v>
       </c>
       <c r="P86">
-        <v>-15.4179232272</v>
+        <v>-14.8262481432</v>
       </c>
       <c r="Q86">
-        <v>-15.1579232272</v>
+        <v>-14.5662481432</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.4883388320272989</v>
+        <v>0.5051779115507979</v>
       </c>
       <c r="T86">
-        <v>4.937844232011066</v>
+        <v>4.934236449056952</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.0240848042012462</v>
+        <v>0.02493701556383793</v>
       </c>
       <c r="W86">
-        <v>0.185619070240923</v>
+        <v>0.179119070240923</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.1094763827329372</v>
+        <v>0.1133500707447178</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8447,13 +8447,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2357982321267431</v>
+        <v>0.233032484850503</v>
       </c>
       <c r="C87">
-        <v>-64.22399883115315</v>
+        <v>-62.71837915056155</v>
       </c>
       <c r="D87">
-        <v>46.47650116884684</v>
+        <v>47.98212084943846</v>
       </c>
       <c r="E87">
         <v>115.7605</v>
@@ -8480,37 +8480,37 @@
         <v>2.43</v>
       </c>
       <c r="M87">
-        <v>22.4608131</v>
+        <v>21.69322485</v>
       </c>
       <c r="N87">
-        <v>-20.0308131</v>
+        <v>-19.26322485</v>
       </c>
       <c r="O87">
-        <v>-4.406778882000001</v>
+        <v>-4.237909467</v>
       </c>
       <c r="P87">
-        <v>-15.624034218</v>
+        <v>-15.025315383</v>
       </c>
       <c r="Q87">
-        <v>-15.364034218</v>
+        <v>-14.765315383</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.5198414208291189</v>
+        <v>0.5382364389875178</v>
       </c>
       <c r="T87">
-        <v>5.267033847478471</v>
+        <v>5.263185545660749</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.02380145356358448</v>
+        <v>0.02464363891014572</v>
       </c>
       <c r="W87">
-        <v>0.1856729635322062</v>
+        <v>0.1791729635322062</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.1081884252890204</v>
+        <v>0.1120165405006623</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2375422321267431</v>
+        <v>0.234776484850503</v>
       </c>
       <c r="C88">
-        <v>-65.97883595622429</v>
+        <v>-64.4788079572613</v>
       </c>
       <c r="D88">
-        <v>46.11096404377572</v>
+        <v>47.6109920427387</v>
       </c>
       <c r="E88">
         <v>117.1498</v>
@@ -8562,37 +8562,37 @@
         <v>2.43</v>
       </c>
       <c r="M88">
-        <v>22.72505796</v>
+        <v>21.94843926</v>
       </c>
       <c r="N88">
-        <v>-20.29505796</v>
+        <v>-19.51843926</v>
       </c>
       <c r="O88">
-        <v>-4.4649127512</v>
+        <v>-4.294056637200001</v>
       </c>
       <c r="P88">
-        <v>-15.8301452088</v>
+        <v>-15.2243826228</v>
       </c>
       <c r="Q88">
-        <v>-15.5701452088</v>
+        <v>-14.9643826228</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.5558443794597703</v>
+        <v>0.576017613200912</v>
       </c>
       <c r="T88">
-        <v>5.64325055086979</v>
+        <v>5.639127370350804</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.02352469247563583</v>
+        <v>0.02435708496933007</v>
       </c>
       <c r="W88">
-        <v>0.1857256034911341</v>
+        <v>0.1792256034911341</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.1069304203437992</v>
+        <v>0.1107140225878639</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8611,13 +8611,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2392862321267432</v>
+        <v>0.236520484850503</v>
       </c>
       <c r="C89">
-        <v>-67.72796806099009</v>
+        <v>-66.23353966636608</v>
       </c>
       <c r="D89">
-        <v>45.75113193900991</v>
+        <v>47.24556033363393</v>
       </c>
       <c r="E89">
         <v>118.5391</v>
@@ -8644,37 +8644,37 @@
         <v>2.43</v>
       </c>
       <c r="M89">
-        <v>22.98930282</v>
+        <v>22.20365367</v>
       </c>
       <c r="N89">
-        <v>-20.55930282</v>
+        <v>-19.77365367</v>
       </c>
       <c r="O89">
-        <v>-4.523046620400001</v>
+        <v>-4.350203807400001</v>
       </c>
       <c r="P89">
-        <v>-16.0362561996</v>
+        <v>-15.4234498626</v>
       </c>
       <c r="Q89">
-        <v>-15.7762561996</v>
+        <v>-15.1634498626</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.5973862548028295</v>
+        <v>0.6196112757548283</v>
       </c>
       <c r="T89">
-        <v>6.077346747090544</v>
+        <v>6.072906398839327</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.02325429371154806</v>
+        <v>0.02407711847542972</v>
       </c>
       <c r="W89">
-        <v>0.1857770333360636</v>
+        <v>0.1792770333360636</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.1057013350524911</v>
+        <v>0.1094414476155896</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2410302321267431</v>
+        <v>0.238264484850503</v>
       </c>
       <c r="C90">
-        <v>-69.47152767058253</v>
+        <v>-67.98270446057492</v>
       </c>
       <c r="D90">
-        <v>45.39687232941748</v>
+        <v>46.88569553942508</v>
       </c>
       <c r="E90">
         <v>119.9284</v>
@@ -8726,37 +8726,37 @@
         <v>2.43</v>
       </c>
       <c r="M90">
-        <v>23.25354768</v>
+        <v>22.45886808</v>
       </c>
       <c r="N90">
-        <v>-20.82354768</v>
+        <v>-20.02886808</v>
       </c>
       <c r="O90">
-        <v>-4.581180489600001</v>
+        <v>-4.406350977600001</v>
       </c>
       <c r="P90">
-        <v>-16.2423671904</v>
+        <v>-15.6225171024</v>
       </c>
       <c r="Q90">
-        <v>-15.9823671904</v>
+        <v>-15.3625171024</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.6458517760363987</v>
+        <v>0.6704705487343975</v>
       </c>
       <c r="T90">
-        <v>6.583792309348089</v>
+        <v>6.578981932075939</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.02299004037391683</v>
+        <v>0.02380351485639075</v>
       </c>
       <c r="W90">
-        <v>0.185827294320881</v>
+        <v>0.179327294320881</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.1045001835178038</v>
+        <v>0.1081977948017762</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2427742321267432</v>
+        <v>0.240008484850503</v>
       </c>
       <c r="C91">
-        <v>-71.2096432370046</v>
+        <v>-69.72642858621444</v>
       </c>
       <c r="D91">
-        <v>45.04805676299541</v>
+        <v>46.53127141378557</v>
       </c>
       <c r="E91">
         <v>121.3177</v>
@@ -8808,37 +8808,37 @@
         <v>2.43</v>
       </c>
       <c r="M91">
-        <v>23.51779254</v>
+        <v>22.71408249</v>
       </c>
       <c r="N91">
-        <v>-21.08779254</v>
+        <v>-20.28408249</v>
       </c>
       <c r="O91">
-        <v>-4.639314358800001</v>
+        <v>-4.462498147800001</v>
       </c>
       <c r="P91">
-        <v>-16.4484781812</v>
+        <v>-15.8215843422</v>
       </c>
       <c r="Q91">
-        <v>-16.1884781812</v>
+        <v>-15.5615843422</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.7031292102215259</v>
+        <v>0.7305769622557063</v>
       </c>
       <c r="T91">
-        <v>7.182318882925188</v>
+        <v>7.177071198628297</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.02273172531353574</v>
+        <v>0.02353605963328523</v>
       </c>
       <c r="W91">
-        <v>0.1858764258453655</v>
+        <v>0.1793764258453655</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.1033260241524352</v>
+        <v>0.1069820892422056</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8857,13 +8857,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2445182321267431</v>
+        <v>0.241752484850503</v>
       </c>
       <c r="C92">
-        <v>-72.94243929442047</v>
+        <v>-71.4648345009042</v>
       </c>
       <c r="D92">
-        <v>44.70456070557954</v>
+        <v>46.1821654990958</v>
       </c>
       <c r="E92">
         <v>122.707</v>
@@ -8890,37 +8890,37 @@
         <v>2.43</v>
       </c>
       <c r="M92">
-        <v>23.7820374</v>
+        <v>22.9692969</v>
       </c>
       <c r="N92">
-        <v>-21.3520374</v>
+        <v>-20.5392969</v>
       </c>
       <c r="O92">
-        <v>-4.697448228000001</v>
+        <v>-4.518645318</v>
       </c>
       <c r="P92">
-        <v>-16.654589172</v>
+        <v>-16.020651582</v>
       </c>
       <c r="Q92">
-        <v>-16.394589172</v>
+        <v>-15.760651582</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.7718621312436785</v>
+        <v>0.802704658481277</v>
       </c>
       <c r="T92">
-        <v>7.900550771217708</v>
+        <v>7.894778318491127</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.02247915058782978</v>
+        <v>0.02327454785958207</v>
       </c>
       <c r="W92">
-        <v>0.1859244655581948</v>
+        <v>0.1794244655581948</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.1021779572174081</v>
+        <v>0.1057933993617367</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2462622321267431</v>
+        <v>0.243496484850503</v>
       </c>
       <c r="C93">
-        <v>-74.67003660739475</v>
+        <v>-73.19804101462424</v>
       </c>
       <c r="D93">
-        <v>44.36626339260526</v>
+        <v>45.83825898537578</v>
       </c>
       <c r="E93">
         <v>124.0963</v>
@@ -8972,37 +8972,37 @@
         <v>2.43</v>
       </c>
       <c r="M93">
-        <v>24.04628226</v>
+        <v>23.22451131</v>
       </c>
       <c r="N93">
-        <v>-21.61628226</v>
+        <v>-20.79451131</v>
       </c>
       <c r="O93">
-        <v>-4.7555820972</v>
+        <v>-4.574792488200001</v>
       </c>
       <c r="P93">
-        <v>-16.8607001628</v>
+        <v>-16.2197188218</v>
       </c>
       <c r="Q93">
-        <v>-16.6007001628</v>
+        <v>-15.9597188218</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.8558690347151985</v>
+        <v>0.8908607316458633</v>
       </c>
       <c r="T93">
-        <v>8.778389745797455</v>
+        <v>8.771975909434586</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.02223212695499649</v>
+        <v>0.02301878359738885</v>
       </c>
       <c r="W93">
-        <v>0.1859714494531597</v>
+        <v>0.1794714494531597</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.1010551225227113</v>
+        <v>0.1046308345335857</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2480062321267432</v>
+        <v>0.245240484850503</v>
       </c>
       <c r="C94">
-        <v>-76.39255231245158</v>
+        <v>-74.92616342452625</v>
       </c>
       <c r="D94">
-        <v>44.03304768754843</v>
+        <v>45.49943657547377</v>
       </c>
       <c r="E94">
         <v>125.4856</v>
@@ -9054,37 +9054,37 @@
         <v>2.43</v>
       </c>
       <c r="M94">
-        <v>24.31052712</v>
+        <v>23.47972572</v>
       </c>
       <c r="N94">
-        <v>-21.88052712</v>
+        <v>-21.04972572</v>
       </c>
       <c r="O94">
-        <v>-4.813715966400001</v>
+        <v>-4.630939658400001</v>
       </c>
       <c r="P94">
-        <v>-17.0668111536</v>
+        <v>-16.4187860616</v>
       </c>
       <c r="Q94">
-        <v>-16.8068111536</v>
+        <v>-16.1587860616</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.9608776640545986</v>
+        <v>1.001055823101596</v>
       </c>
       <c r="T94">
-        <v>9.87568846402214</v>
+        <v>9.868472898113911</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.02199047340113783</v>
+        <v>0.02276857942785202</v>
       </c>
       <c r="W94">
-        <v>0.1860174119591036</v>
+        <v>0.1795174119591036</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.09995669727789924</v>
+        <v>0.1034935428538728</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -9103,13 +9103,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2497502321267431</v>
+        <v>0.246984484850503</v>
       </c>
       <c r="C95">
-        <v>-78.1101000533022</v>
+        <v>-76.64931364380973</v>
       </c>
       <c r="D95">
-        <v>43.7047999466978</v>
+        <v>45.16558635619027</v>
       </c>
       <c r="E95">
         <v>126.8749</v>
@@ -9136,37 +9136,37 @@
         <v>2.43</v>
       </c>
       <c r="M95">
-        <v>24.57477198</v>
+        <v>23.73494013</v>
       </c>
       <c r="N95">
-        <v>-22.14477198</v>
+        <v>-21.30494013</v>
       </c>
       <c r="O95">
-        <v>-4.8718498356</v>
+        <v>-4.687086828600001</v>
       </c>
       <c r="P95">
-        <v>-17.2729221444</v>
+        <v>-16.6178533014</v>
       </c>
       <c r="Q95">
-        <v>-17.0129221444</v>
+        <v>-16.3578533014</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.095888758919541</v>
+        <v>1.142735226401825</v>
       </c>
       <c r="T95">
-        <v>11.28650110173959</v>
+        <v>11.27825474070162</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.02175401669789979</v>
+        <v>0.02252375599314393</v>
       </c>
       <c r="W95">
-        <v>0.1860623860240595</v>
+        <v>0.1795623860240595</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.09888189408136272</v>
+        <v>0.1023807090597452</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9185,13 +9185,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2514942321267432</v>
+        <v>0.248728484850503</v>
       </c>
       <c r="C96">
-        <v>-79.82279011006887</v>
+        <v>-78.36760032496579</v>
       </c>
       <c r="D96">
-        <v>43.38140988993114</v>
+        <v>44.8365996750342</v>
       </c>
       <c r="E96">
         <v>128.2642</v>
@@ -9218,37 +9218,37 @@
         <v>2.43</v>
       </c>
       <c r="M96">
-        <v>24.83901684</v>
+        <v>23.99015454</v>
       </c>
       <c r="N96">
-        <v>-22.40901684</v>
+        <v>-21.56015454</v>
       </c>
       <c r="O96">
-        <v>-4.929983704800001</v>
+        <v>-4.7432339988</v>
       </c>
       <c r="P96">
-        <v>-17.4790331352</v>
+        <v>-16.8169205412</v>
       </c>
       <c r="Q96">
-        <v>-17.2190331352</v>
+        <v>-16.5569205412</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.275903552072799</v>
+        <v>1.331641097468796</v>
       </c>
       <c r="T96">
-        <v>13.16758461869619</v>
+        <v>13.15796386415189</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.02152259098834767</v>
+        <v>0.02228414156768496</v>
       </c>
       <c r="W96">
-        <v>0.1861064031940163</v>
+        <v>0.1796064031940163</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.09782995903794389</v>
+        <v>0.1012915525803861</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9267,13 +9267,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2532382321267432</v>
+        <v>0.250472484850503</v>
       </c>
       <c r="C97">
-        <v>-81.53072952281373</v>
+        <v>-80.08112897767359</v>
       </c>
       <c r="D97">
-        <v>43.06277047718629</v>
+        <v>44.51237102232643</v>
       </c>
       <c r="E97">
         <v>129.6535</v>
@@ -9300,37 +9300,37 @@
         <v>2.43</v>
       </c>
       <c r="M97">
-        <v>25.1032617</v>
+        <v>24.24536895</v>
       </c>
       <c r="N97">
-        <v>-22.6732617</v>
+        <v>-21.81536895</v>
       </c>
       <c r="O97">
-        <v>-4.988117574000001</v>
+        <v>-4.799381169000001</v>
       </c>
       <c r="P97">
-        <v>-17.685144126</v>
+        <v>-17.015987781</v>
       </c>
       <c r="Q97">
-        <v>-17.42514412600001</v>
+        <v>-16.755987781</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.527924262487359</v>
+        <v>1.596109316962556</v>
       </c>
       <c r="T97">
-        <v>15.80110154243544</v>
+        <v>15.78955663698227</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.02129603739899664</v>
+        <v>0.02204957165644617</v>
       </c>
       <c r="W97">
-        <v>0.1861494936867109</v>
+        <v>0.1796494936867108</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.09680016999543928</v>
+        <v>0.100225325711119</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9349,13 +9349,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2549822321267431</v>
+        <v>0.252216484850503</v>
       </c>
       <c r="C98">
-        <v>-83.23402220966352</v>
+        <v>-81.79000208161797</v>
       </c>
       <c r="D98">
-        <v>42.74877779033648</v>
+        <v>44.19279791838204</v>
       </c>
       <c r="E98">
         <v>131.0428</v>
@@ -9382,37 +9382,37 @@
         <v>2.43</v>
       </c>
       <c r="M98">
-        <v>25.36750656</v>
+        <v>24.50058336</v>
       </c>
       <c r="N98">
-        <v>-22.93750656</v>
+        <v>-22.07058336</v>
       </c>
       <c r="O98">
-        <v>-5.046251443200001</v>
+        <v>-4.855528339200001</v>
       </c>
       <c r="P98">
-        <v>-17.8912551168</v>
+        <v>-17.2150550208</v>
       </c>
       <c r="Q98">
-        <v>-17.63125511680001</v>
+        <v>-16.9550550208</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.905955328109195</v>
+        <v>1.992811646203191</v>
       </c>
       <c r="T98">
-        <v>19.75137692804425</v>
+        <v>19.7369457962278</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.02107420367609043</v>
+        <v>0.02181988861835819</v>
       </c>
       <c r="W98">
-        <v>0.1861916864608076</v>
+        <v>0.1796916864608076</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.09579183489132015</v>
+        <v>0.09918131190162804</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9431,13 +9431,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2567262321267431</v>
+        <v>0.253960484850503</v>
       </c>
       <c r="C99">
-        <v>-84.93276907980396</v>
+        <v>-83.49431919448256</v>
       </c>
       <c r="D99">
-        <v>42.43933092019605</v>
+        <v>43.87778080551744</v>
       </c>
       <c r="E99">
         <v>132.4321</v>
@@ -9464,37 +9464,37 @@
         <v>2.43</v>
       </c>
       <c r="M99">
-        <v>25.63175142</v>
+        <v>24.75579777</v>
       </c>
       <c r="N99">
-        <v>-23.20175142</v>
+        <v>-22.32579777</v>
       </c>
       <c r="O99">
-        <v>-5.1043853124</v>
+        <v>-4.9116755094</v>
       </c>
       <c r="P99">
-        <v>-18.0973661076</v>
+        <v>-17.4141222606</v>
       </c>
       <c r="Q99">
-        <v>-17.8373661076</v>
+        <v>-17.1541222606</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.536007104145593</v>
+        <v>2.653982194937588</v>
       </c>
       <c r="T99">
-        <v>26.33516923739234</v>
+        <v>26.31592772830373</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.02085694384437816</v>
+        <v>0.02159494131301429</v>
       </c>
       <c r="W99">
-        <v>0.1862330092807993</v>
+        <v>0.1797330092807993</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.09480429020171888</v>
+        <v>0.09815882415006494</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9513,13 +9513,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2584702321267431</v>
+        <v>0.255704484850503</v>
       </c>
       <c r="C100">
-        <v>-86.62706814160137</v>
+        <v>-85.19417705535611</v>
       </c>
       <c r="D100">
-        <v>42.13433185839862</v>
+        <v>43.56722294464389</v>
       </c>
       <c r="E100">
         <v>133.8214</v>
@@ -9546,37 +9546,37 @@
         <v>2.43</v>
       </c>
       <c r="M100">
-        <v>25.89599628</v>
+        <v>25.01101218</v>
       </c>
       <c r="N100">
-        <v>-23.46599628</v>
+        <v>-22.58101218</v>
       </c>
       <c r="O100">
-        <v>-5.1625191816</v>
+        <v>-4.967822679599999</v>
       </c>
       <c r="P100">
-        <v>-18.3034770984</v>
+        <v>-17.6131895004</v>
       </c>
       <c r="Q100">
-        <v>-18.0434770984</v>
+        <v>-17.3531895004</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>3.796110656218389</v>
+        <v>3.976323292406381</v>
       </c>
       <c r="T100">
-        <v>39.5027538560885</v>
+        <v>39.47389159245559</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.02064411788678246</v>
+        <v>0.02137458476900394</v>
       </c>
       <c r="W100">
-        <v>0.186273488777934</v>
+        <v>0.179773488777934</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.09383689948537477</v>
+        <v>0.09715720349547241</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9595,13 +9595,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2602142321267432</v>
+        <v>0.257448484850503</v>
       </c>
       <c r="C101">
-        <v>-88.31701460609591</v>
+        <v>-86.88966968377872</v>
       </c>
       <c r="D101">
-        <v>41.8336853939041</v>
+        <v>43.26103031622129</v>
       </c>
       <c r="E101">
         <v>135.2107</v>
@@ -9628,37 +9628,37 @@
         <v>2.43</v>
       </c>
       <c r="M101">
-        <v>26.16024114</v>
+        <v>25.26622659</v>
       </c>
       <c r="N101">
-        <v>-23.73024114</v>
+        <v>-22.83622659</v>
       </c>
       <c r="O101">
-        <v>-5.220653050800001</v>
+        <v>-5.0239698498</v>
       </c>
       <c r="P101">
-        <v>-18.5095880892</v>
+        <v>-17.8122567402</v>
       </c>
       <c r="Q101">
-        <v>-18.2495880892</v>
+        <v>-17.5522567402</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>7.576421312436778</v>
+        <v>7.943346584812762</v>
       </c>
       <c r="T101">
-        <v>79.00550771217701</v>
+        <v>78.94778318491119</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.02043559144348162</v>
+        <v>0.02115867987234733</v>
       </c>
       <c r="W101">
-        <v>0.1863131505074498</v>
+        <v>0.1798131505074498</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.09288905201582554</v>
+        <v>0.09617581760157878</v>
       </c>
       <c r="Z101">
         <v>0</v>
